--- a/notes/WellThoughts.xlsx
+++ b/notes/WellThoughts.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="48" windowWidth="16260" windowHeight="9000"/>
+    <workbookView xWindow="0" yWindow="48" windowWidth="16260" windowHeight="9000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Oddz" sheetId="1" r:id="rId1"/>
     <sheet name="Wall" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Doors" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
   <si>
     <t>w-1</t>
   </si>
@@ -121,7 +121,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,6 +131,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
@@ -378,13 +390,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" textRotation="180" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,7 +715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="W29" sqref="W29"/>
     </sheetView>
   </sheetViews>
@@ -704,10 +731,10 @@
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="26"/>
+      <c r="Q1" s="27"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -784,7 +811,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="10"/>
-      <c r="L5" s="27" t="s">
+      <c r="L5" s="28" t="s">
         <v>16</v>
       </c>
       <c r="M5" s="1">
@@ -814,7 +841,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
-      <c r="L6" s="27"/>
+      <c r="L6" s="28"/>
       <c r="O6" s="6"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="9"/>
@@ -1200,542 +1227,542 @@
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B1" s="28"/>
-      <c r="Q1" s="28"/>
+      <c r="B1" s="26"/>
+      <c r="Q1" s="26"/>
     </row>
     <row r="2" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B2" s="28"/>
-      <c r="Q2" s="28"/>
+      <c r="B2" s="26"/>
+      <c r="Q2" s="26"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
+      <c r="B3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
+      <c r="B4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="S5" s="28"/>
+      <c r="B5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="S5" s="26"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="S6" s="28"/>
+      <c r="B6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="S6" s="26"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="T7" s="28"/>
+      <c r="B7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="T7" s="26"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="T8" s="28"/>
+      <c r="B8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="T8" s="26"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="U9" s="28"/>
+      <c r="B9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="U9" s="26"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="U10" s="28"/>
+      <c r="B10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="U10" s="26"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="V11" s="28"/>
+      <c r="B11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="V11" s="26"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="V12" s="28"/>
+      <c r="B12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="V12" s="26"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="W13" s="28"/>
+      <c r="B13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="W13" s="26"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="W14" s="28"/>
+      <c r="B14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="W14" s="26"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="X15" s="28"/>
+      <c r="B15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="X15" s="26"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
+      <c r="B16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="28"/>
-      <c r="D33" s="28"/>
+      <c r="B33" s="26"/>
+      <c r="D33" s="26"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="28"/>
-      <c r="D34" s="28"/>
+      <c r="B34" s="26"/>
+      <c r="D34" s="26"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="28"/>
-      <c r="D35" s="28"/>
+      <c r="B35" s="26"/>
+      <c r="D35" s="26"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="28"/>
-      <c r="D36" s="28"/>
+      <c r="B36" s="26"/>
+      <c r="D36" s="26"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="28"/>
-      <c r="D37" s="28"/>
+      <c r="B37" s="26"/>
+      <c r="D37" s="26"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="28"/>
-      <c r="D38" s="28"/>
+      <c r="B38" s="26"/>
+      <c r="D38" s="26"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="28"/>
-      <c r="D39" s="28"/>
+      <c r="B39" s="26"/>
+      <c r="D39" s="26"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="28"/>
-      <c r="D40" s="28"/>
+      <c r="B40" s="26"/>
+      <c r="D40" s="26"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="28"/>
-      <c r="D41" s="28"/>
+      <c r="B41" s="26"/>
+      <c r="D41" s="26"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="28"/>
-      <c r="D42" s="28"/>
+      <c r="B42" s="26"/>
+      <c r="D42" s="26"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="28"/>
-      <c r="D43" s="28"/>
+      <c r="B43" s="26"/>
+      <c r="D43" s="26"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="28"/>
-      <c r="D44" s="28"/>
+      <c r="B44" s="26"/>
+      <c r="D44" s="26"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="28"/>
-      <c r="D45" s="28"/>
+      <c r="B45" s="26"/>
+      <c r="D45" s="26"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="28"/>
-      <c r="D46" s="28"/>
+      <c r="B46" s="26"/>
+      <c r="D46" s="26"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="28"/>
-      <c r="D47" s="28"/>
+      <c r="B47" s="26"/>
+      <c r="D47" s="26"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="28"/>
-      <c r="D48" s="28"/>
+      <c r="B48" s="26"/>
+      <c r="D48" s="26"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="28"/>
-      <c r="E49" s="28"/>
+      <c r="B49" s="26"/>
+      <c r="E49" s="26"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="28"/>
-      <c r="E50" s="28"/>
+      <c r="B50" s="26"/>
+      <c r="E50" s="26"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="28"/>
-      <c r="E51" s="28"/>
+      <c r="B51" s="26"/>
+      <c r="E51" s="26"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="28"/>
-      <c r="E52" s="28"/>
+      <c r="B52" s="26"/>
+      <c r="E52" s="26"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B53" s="28"/>
-      <c r="E53" s="28"/>
+      <c r="B53" s="26"/>
+      <c r="E53" s="26"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B54" s="28"/>
-      <c r="E54" s="28"/>
+      <c r="B54" s="26"/>
+      <c r="E54" s="26"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B55" s="28"/>
-      <c r="E55" s="28"/>
+      <c r="B55" s="26"/>
+      <c r="E55" s="26"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B56" s="28"/>
-      <c r="E56" s="28"/>
+      <c r="B56" s="26"/>
+      <c r="E56" s="26"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B57" s="28"/>
-      <c r="E57" s="28"/>
+      <c r="B57" s="26"/>
+      <c r="E57" s="26"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="28"/>
-      <c r="E58" s="28"/>
+      <c r="B58" s="26"/>
+      <c r="E58" s="26"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="28"/>
-      <c r="E59" s="28"/>
+      <c r="B59" s="26"/>
+      <c r="E59" s="26"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B60" s="28"/>
-      <c r="E60" s="28"/>
+      <c r="B60" s="26"/>
+      <c r="E60" s="26"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B61" s="28"/>
-      <c r="E61" s="28"/>
+      <c r="B61" s="26"/>
+      <c r="E61" s="26"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B62" s="28"/>
-      <c r="E62" s="28"/>
+      <c r="B62" s="26"/>
+      <c r="E62" s="26"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B63" s="28"/>
-      <c r="E63" s="28"/>
+      <c r="B63" s="26"/>
+      <c r="E63" s="26"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B64" s="28"/>
-      <c r="E64" s="28"/>
+      <c r="B64" s="26"/>
+      <c r="E64" s="26"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="28"/>
-      <c r="F65" s="28"/>
+      <c r="B65" s="26"/>
+      <c r="F65" s="26"/>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B66" s="28"/>
-      <c r="F66" s="28"/>
+      <c r="B66" s="26"/>
+      <c r="F66" s="26"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B67" s="28"/>
-      <c r="F67" s="28"/>
+      <c r="B67" s="26"/>
+      <c r="F67" s="26"/>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B68" s="28"/>
-      <c r="F68" s="28"/>
+      <c r="B68" s="26"/>
+      <c r="F68" s="26"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B69" s="28"/>
-      <c r="F69" s="28"/>
+      <c r="B69" s="26"/>
+      <c r="F69" s="26"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B70" s="28"/>
-      <c r="F70" s="28"/>
+      <c r="B70" s="26"/>
+      <c r="F70" s="26"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B71" s="28"/>
-      <c r="F71" s="28"/>
+      <c r="B71" s="26"/>
+      <c r="F71" s="26"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B72" s="28"/>
-      <c r="F72" s="28"/>
+      <c r="B72" s="26"/>
+      <c r="F72" s="26"/>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B73" s="28"/>
-      <c r="F73" s="28"/>
+      <c r="B73" s="26"/>
+      <c r="F73" s="26"/>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B74" s="28"/>
-      <c r="F74" s="28"/>
+      <c r="B74" s="26"/>
+      <c r="F74" s="26"/>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B75" s="28"/>
-      <c r="F75" s="28"/>
+      <c r="B75" s="26"/>
+      <c r="F75" s="26"/>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B76" s="28"/>
-      <c r="F76" s="28"/>
+      <c r="B76" s="26"/>
+      <c r="F76" s="26"/>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B77" s="28"/>
-      <c r="F77" s="28"/>
+      <c r="B77" s="26"/>
+      <c r="F77" s="26"/>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B78" s="28"/>
-      <c r="F78" s="28"/>
+      <c r="B78" s="26"/>
+      <c r="F78" s="26"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B79" s="28"/>
-      <c r="F79" s="28"/>
+      <c r="B79" s="26"/>
+      <c r="F79" s="26"/>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B80" s="28"/>
-      <c r="F80" s="28"/>
+      <c r="B80" s="26"/>
+      <c r="F80" s="26"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B81" s="28"/>
-      <c r="G81" s="28"/>
+      <c r="B81" s="26"/>
+      <c r="G81" s="26"/>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B82" s="28"/>
-      <c r="G82" s="28"/>
+      <c r="B82" s="26"/>
+      <c r="G82" s="26"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B83" s="28"/>
-      <c r="G83" s="28"/>
+      <c r="B83" s="26"/>
+      <c r="G83" s="26"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B84" s="28"/>
-      <c r="G84" s="28"/>
+      <c r="B84" s="26"/>
+      <c r="G84" s="26"/>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B85" s="28"/>
-      <c r="G85" s="28"/>
+      <c r="B85" s="26"/>
+      <c r="G85" s="26"/>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B86" s="28"/>
-      <c r="G86" s="28"/>
+      <c r="B86" s="26"/>
+      <c r="G86" s="26"/>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B87" s="28"/>
-      <c r="G87" s="28"/>
+      <c r="B87" s="26"/>
+      <c r="G87" s="26"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B88" s="28"/>
-      <c r="G88" s="28"/>
+      <c r="B88" s="26"/>
+      <c r="G88" s="26"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B89" s="28"/>
-      <c r="G89" s="28"/>
+      <c r="B89" s="26"/>
+      <c r="G89" s="26"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B90" s="28"/>
-      <c r="G90" s="28"/>
+      <c r="B90" s="26"/>
+      <c r="G90" s="26"/>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B91" s="28"/>
-      <c r="G91" s="28"/>
+      <c r="B91" s="26"/>
+      <c r="G91" s="26"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B92" s="28"/>
-      <c r="G92" s="28"/>
+      <c r="B92" s="26"/>
+      <c r="G92" s="26"/>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B93" s="28"/>
-      <c r="G93" s="28"/>
+      <c r="B93" s="26"/>
+      <c r="G93" s="26"/>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B94" s="28"/>
-      <c r="G94" s="28"/>
+      <c r="B94" s="26"/>
+      <c r="G94" s="26"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B95" s="28"/>
-      <c r="G95" s="28"/>
+      <c r="B95" s="26"/>
+      <c r="G95" s="26"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B96" s="28"/>
-      <c r="G96" s="28"/>
+      <c r="B96" s="26"/>
+      <c r="G96" s="26"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B97" s="28"/>
-      <c r="H97" s="28"/>
+      <c r="B97" s="26"/>
+      <c r="H97" s="26"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B98" s="28"/>
-      <c r="H98" s="28"/>
+      <c r="B98" s="26"/>
+      <c r="H98" s="26"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B99" s="28"/>
-      <c r="H99" s="28"/>
+      <c r="B99" s="26"/>
+      <c r="H99" s="26"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B100" s="28"/>
-      <c r="H100" s="28"/>
+      <c r="B100" s="26"/>
+      <c r="H100" s="26"/>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B101" s="28"/>
-      <c r="H101" s="28"/>
+      <c r="B101" s="26"/>
+      <c r="H101" s="26"/>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B102" s="28"/>
-      <c r="H102" s="28"/>
+      <c r="B102" s="26"/>
+      <c r="H102" s="26"/>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B103" s="28"/>
-      <c r="H103" s="28"/>
+      <c r="B103" s="26"/>
+      <c r="H103" s="26"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B104" s="28"/>
-      <c r="H104" s="28"/>
+      <c r="B104" s="26"/>
+      <c r="H104" s="26"/>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B105" s="28"/>
-      <c r="H105" s="28"/>
+      <c r="B105" s="26"/>
+      <c r="H105" s="26"/>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B106" s="28"/>
-      <c r="H106" s="28"/>
+      <c r="B106" s="26"/>
+      <c r="H106" s="26"/>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B107" s="28"/>
-      <c r="H107" s="28"/>
+      <c r="B107" s="26"/>
+      <c r="H107" s="26"/>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B108" s="28"/>
-      <c r="H108" s="28"/>
+      <c r="B108" s="26"/>
+      <c r="H108" s="26"/>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B109" s="28"/>
-      <c r="H109" s="28"/>
+      <c r="B109" s="26"/>
+      <c r="H109" s="26"/>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B110" s="28"/>
-      <c r="H110" s="28"/>
+      <c r="B110" s="26"/>
+      <c r="H110" s="26"/>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B111" s="28"/>
-      <c r="H111" s="28"/>
+      <c r="B111" s="26"/>
+      <c r="H111" s="26"/>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B112" s="28"/>
-      <c r="H112" s="28"/>
+      <c r="B112" s="26"/>
+      <c r="H112" s="26"/>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B113" s="28"/>
-      <c r="I113" s="28"/>
+      <c r="B113" s="26"/>
+      <c r="I113" s="26"/>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B114" s="28"/>
-      <c r="I114" s="28"/>
+      <c r="B114" s="26"/>
+      <c r="I114" s="26"/>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B115" s="28"/>
-      <c r="I115" s="28"/>
+      <c r="B115" s="26"/>
+      <c r="I115" s="26"/>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B116" s="28"/>
-      <c r="I116" s="28"/>
+      <c r="B116" s="26"/>
+      <c r="I116" s="26"/>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B117" s="28"/>
-      <c r="I117" s="28"/>
+      <c r="B117" s="26"/>
+      <c r="I117" s="26"/>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B118" s="28"/>
-      <c r="I118" s="28"/>
+      <c r="B118" s="26"/>
+      <c r="I118" s="26"/>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B119" s="28"/>
-      <c r="I119" s="28"/>
+      <c r="B119" s="26"/>
+      <c r="I119" s="26"/>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B120" s="28"/>
-      <c r="I120" s="28"/>
+      <c r="B120" s="26"/>
+      <c r="I120" s="26"/>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B121" s="28"/>
-      <c r="I121" s="28"/>
+      <c r="B121" s="26"/>
+      <c r="I121" s="26"/>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B122" s="28"/>
-      <c r="I122" s="28"/>
+      <c r="B122" s="26"/>
+      <c r="I122" s="26"/>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B123" s="28"/>
-      <c r="I123" s="28"/>
+      <c r="B123" s="26"/>
+      <c r="I123" s="26"/>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B124" s="28"/>
-      <c r="I124" s="28"/>
+      <c r="B124" s="26"/>
+      <c r="I124" s="26"/>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B125" s="28"/>
-      <c r="I125" s="28"/>
+      <c r="B125" s="26"/>
+      <c r="I125" s="26"/>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B126" s="28"/>
-      <c r="I126" s="28"/>
+      <c r="B126" s="26"/>
+      <c r="I126" s="26"/>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B127" s="28"/>
-      <c r="I127" s="28"/>
+      <c r="B127" s="26"/>
+      <c r="I127" s="26"/>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B128" s="28"/>
-      <c r="C128" s="28"/>
-      <c r="D128" s="28"/>
-      <c r="E128" s="28"/>
-      <c r="F128" s="28"/>
-      <c r="G128" s="28"/>
-      <c r="H128" s="28"/>
-      <c r="I128" s="28"/>
+      <c r="B128" s="26"/>
+      <c r="C128" s="26"/>
+      <c r="D128" s="26"/>
+      <c r="E128" s="26"/>
+      <c r="F128" s="26"/>
+      <c r="G128" s="26"/>
+      <c r="H128" s="26"/>
+      <c r="I128" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1744,12 +1771,519 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <f>+B1+1</f>
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <f t="shared" ref="D1:Q1" si="0">+C1+1</f>
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f t="shared" ref="A4:A17" si="1">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="39"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/notes/WellThoughts.xlsx
+++ b/notes/WellThoughts.xlsx
@@ -313,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
@@ -391,12 +391,6 @@
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" textRotation="180" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -412,6 +406,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" textRotation="180" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,10 +732,10 @@
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="27"/>
+      <c r="Q1" s="42"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -811,7 +812,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="10"/>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="43" t="s">
         <v>16</v>
       </c>
       <c r="M5" s="1">
@@ -841,7 +842,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
-      <c r="L6" s="28"/>
+      <c r="L6" s="43"/>
       <c r="O6" s="6"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="9"/>
@@ -1774,7 +1775,7 @@
   <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="Z11" sqref="Z11:Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1851,432 +1852,432 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ref="A4:A17" si="1">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">

--- a/notes/WellThoughts.xlsx
+++ b/notes/WellThoughts.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="48" windowWidth="16260" windowHeight="9000" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="48" windowWidth="16260" windowHeight="9000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Oddz" sheetId="1" r:id="rId1"/>
     <sheet name="Wall" sheetId="2" r:id="rId2"/>
     <sheet name="Doors" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -121,7 +122,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,6 +147,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -313,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
@@ -406,13 +431,32 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" textRotation="180" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,10 +776,10 @@
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="P1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="42"/>
+      <c r="Q1" s="43"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -812,7 +856,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="10"/>
-      <c r="L5" s="43" t="s">
+      <c r="L5" s="44" t="s">
         <v>16</v>
       </c>
       <c r="M5" s="1">
@@ -842,7 +886,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
-      <c r="L6" s="43"/>
+      <c r="L6" s="44"/>
       <c r="O6" s="6"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="9"/>
@@ -1774,7 +1818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Z11" sqref="Z11:Z12"/>
     </sheetView>
   </sheetViews>
@@ -1914,9 +1958,9 @@
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
       <c r="M4" s="27"/>
       <c r="N4" s="27"/>
       <c r="O4" s="27"/>
@@ -2000,7 +2044,7 @@
       <c r="L7" s="27"/>
       <c r="M7" s="27"/>
       <c r="N7" s="27"/>
-      <c r="O7" s="44"/>
+      <c r="O7" s="42"/>
       <c r="P7" s="31"/>
       <c r="Q7" s="34"/>
       <c r="R7" s="30"/>
@@ -2027,7 +2071,7 @@
       <c r="L8" s="27"/>
       <c r="M8" s="27"/>
       <c r="N8" s="27"/>
-      <c r="O8" s="44"/>
+      <c r="O8" s="42"/>
       <c r="P8" s="38"/>
       <c r="Q8" s="39"/>
       <c r="R8" s="30"/>
@@ -2054,7 +2098,7 @@
       <c r="L9" s="27"/>
       <c r="M9" s="27"/>
       <c r="N9" s="27"/>
-      <c r="O9" s="44"/>
+      <c r="O9" s="42"/>
       <c r="P9" s="31"/>
       <c r="Q9" s="39"/>
       <c r="R9" s="37"/>
@@ -2070,7 +2114,7 @@
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="31"/>
-      <c r="D10" s="44"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
@@ -2097,7 +2141,7 @@
       </c>
       <c r="B11" s="37"/>
       <c r="C11" s="38"/>
-      <c r="D11" s="44"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
@@ -2124,7 +2168,7 @@
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="31"/>
-      <c r="D12" s="44"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
@@ -2208,9 +2252,9 @@
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
@@ -2287,4 +2331,307 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:Q17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="47"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B3" s="48"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="49"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B4" s="56"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="49"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B5" s="48"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="49"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B6" s="48"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="49"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B7" s="48"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="49"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="48"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="49"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B9" s="48"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="49"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B10" s="48"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="49"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B11" s="48"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="49"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B12" s="48"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="49"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B13" s="48"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="49"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B14" s="60"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="49"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="62"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B16" s="60"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="49"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B17" s="50"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="52"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/notes/WellThoughts.xlsx
+++ b/notes/WellThoughts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="48" windowWidth="16260" windowHeight="9000"/>
+    <workbookView xWindow="0" yWindow="48" windowWidth="16260" windowHeight="9000" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Oddz" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,11 @@
     <sheet name="Hex3" sheetId="6" r:id="rId6"/>
     <sheet name="Hex4" sheetId="8" r:id="rId7"/>
     <sheet name="Calculations" sheetId="7" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="WellWidth">Sheet1!$A$1</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -757,12 +761,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" textRotation="180" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
@@ -773,6 +771,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" textRotation="180" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1077,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AL7" sqref="AL7"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AT2" sqref="AT2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1093,10 +1097,10 @@
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="120" t="s">
+      <c r="P1" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="120"/>
+      <c r="Q1" s="129"/>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -1176,7 +1180,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="10"/>
-      <c r="L5" s="121" t="s">
+      <c r="L5" s="130" t="s">
         <v>16</v>
       </c>
       <c r="M5" s="1">
@@ -1225,7 +1229,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
-      <c r="L6" s="121"/>
+      <c r="L6" s="130"/>
       <c r="O6" s="6"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="9"/>
@@ -1246,7 +1250,7 @@
       <c r="AL6" s="6"/>
       <c r="AM6" s="6"/>
       <c r="AN6" s="6"/>
-      <c r="AO6" s="130"/>
+      <c r="AO6" s="128"/>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B7" s="10"/>
@@ -1273,7 +1277,7 @@
       <c r="AL7" s="6"/>
       <c r="AM7" s="6"/>
       <c r="AN7" s="6"/>
-      <c r="AO7" s="130"/>
+      <c r="AO7" s="128"/>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B8" s="10"/>
@@ -1304,7 +1308,7 @@
       <c r="AL8" s="6"/>
       <c r="AM8" s="6"/>
       <c r="AN8" s="6"/>
-      <c r="AO8" s="130"/>
+      <c r="AO8" s="128"/>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -1331,10 +1335,10 @@
         <f>AK8+1</f>
         <v>3</v>
       </c>
-      <c r="AL9" s="130"/>
-      <c r="AM9" s="130"/>
-      <c r="AN9" s="130"/>
-      <c r="AO9" s="130"/>
+      <c r="AL9" s="128"/>
+      <c r="AM9" s="128"/>
+      <c r="AN9" s="128"/>
+      <c r="AO9" s="128"/>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="O10" s="6"/>
@@ -2715,7 +2719,7 @@
   <dimension ref="B2:AO33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AZ15" sqref="AZ15"/>
+      <selection activeCell="AR3" sqref="AR3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6478,10 +6482,10 @@
       <c r="BK5" s="53"/>
       <c r="BL5" s="54"/>
       <c r="BM5" s="52"/>
-      <c r="BN5" s="122"/>
-      <c r="BO5" s="123"/>
-      <c r="BP5" s="124"/>
-      <c r="BQ5" s="122"/>
+      <c r="BN5" s="120"/>
+      <c r="BO5" s="121"/>
+      <c r="BP5" s="122"/>
+      <c r="BQ5" s="120"/>
       <c r="BR5" s="54"/>
       <c r="BS5" s="52"/>
       <c r="BT5" s="53"/>
@@ -6502,10 +6506,10 @@
       <c r="CI5" s="53"/>
       <c r="CJ5" s="54"/>
       <c r="CK5" s="52"/>
-      <c r="CL5" s="122"/>
-      <c r="CM5" s="123"/>
-      <c r="CN5" s="124"/>
-      <c r="CO5" s="122"/>
+      <c r="CL5" s="120"/>
+      <c r="CM5" s="121"/>
+      <c r="CN5" s="122"/>
+      <c r="CO5" s="120"/>
       <c r="CP5" s="54"/>
       <c r="CQ5" s="52"/>
       <c r="CR5" s="53"/>
@@ -6577,8 +6581,8 @@
       <c r="BL6" s="56"/>
       <c r="BM6" s="55"/>
       <c r="BN6" s="42"/>
-      <c r="BO6" s="125"/>
-      <c r="BP6" s="126"/>
+      <c r="BO6" s="123"/>
+      <c r="BP6" s="124"/>
       <c r="BQ6" s="42"/>
       <c r="BR6" s="56"/>
       <c r="BS6" s="55"/>
@@ -6601,8 +6605,8 @@
       <c r="CJ6" s="56"/>
       <c r="CK6" s="55"/>
       <c r="CL6" s="42"/>
-      <c r="CM6" s="125"/>
-      <c r="CN6" s="126"/>
+      <c r="CM6" s="123"/>
+      <c r="CN6" s="124"/>
       <c r="CO6" s="42"/>
       <c r="CP6" s="56"/>
       <c r="CQ6" s="55"/>
@@ -6674,10 +6678,10 @@
       <c r="BK7" s="58"/>
       <c r="BL7" s="59"/>
       <c r="BM7" s="57"/>
-      <c r="BN7" s="127"/>
-      <c r="BO7" s="128"/>
-      <c r="BP7" s="129"/>
-      <c r="BQ7" s="127"/>
+      <c r="BN7" s="125"/>
+      <c r="BO7" s="126"/>
+      <c r="BP7" s="127"/>
+      <c r="BQ7" s="125"/>
       <c r="BR7" s="59"/>
       <c r="BS7" s="57"/>
       <c r="BT7" s="58"/>
@@ -6698,10 +6702,10 @@
       <c r="CI7" s="58"/>
       <c r="CJ7" s="59"/>
       <c r="CK7" s="57"/>
-      <c r="CL7" s="127"/>
-      <c r="CM7" s="128"/>
-      <c r="CN7" s="129"/>
-      <c r="CO7" s="127"/>
+      <c r="CL7" s="125"/>
+      <c r="CM7" s="126"/>
+      <c r="CN7" s="127"/>
+      <c r="CO7" s="125"/>
       <c r="CP7" s="59"/>
       <c r="CQ7" s="57"/>
       <c r="CR7" s="58"/>
@@ -6772,10 +6776,10 @@
       <c r="BK8" s="53"/>
       <c r="BL8" s="54"/>
       <c r="BM8" s="52"/>
-      <c r="BN8" s="122"/>
-      <c r="BO8" s="123"/>
-      <c r="BP8" s="124"/>
-      <c r="BQ8" s="122"/>
+      <c r="BN8" s="120"/>
+      <c r="BO8" s="121"/>
+      <c r="BP8" s="122"/>
+      <c r="BQ8" s="120"/>
       <c r="BR8" s="54"/>
       <c r="BS8" s="52"/>
       <c r="BT8" s="53"/>
@@ -6796,10 +6800,10 @@
       <c r="CI8" s="53"/>
       <c r="CJ8" s="54"/>
       <c r="CK8" s="52"/>
-      <c r="CL8" s="122"/>
-      <c r="CM8" s="123"/>
-      <c r="CN8" s="124"/>
-      <c r="CO8" s="122"/>
+      <c r="CL8" s="120"/>
+      <c r="CM8" s="121"/>
+      <c r="CN8" s="122"/>
+      <c r="CO8" s="120"/>
       <c r="CP8" s="54"/>
       <c r="CQ8" s="52"/>
       <c r="CR8" s="53"/>
@@ -6871,8 +6875,8 @@
       <c r="BL9" s="56"/>
       <c r="BM9" s="55"/>
       <c r="BN9" s="42"/>
-      <c r="BO9" s="125"/>
-      <c r="BP9" s="126"/>
+      <c r="BO9" s="123"/>
+      <c r="BP9" s="124"/>
       <c r="BQ9" s="42"/>
       <c r="BR9" s="56"/>
       <c r="BS9" s="55"/>
@@ -6895,8 +6899,8 @@
       <c r="CJ9" s="56"/>
       <c r="CK9" s="55"/>
       <c r="CL9" s="42"/>
-      <c r="CM9" s="125"/>
-      <c r="CN9" s="126"/>
+      <c r="CM9" s="123"/>
+      <c r="CN9" s="124"/>
       <c r="CO9" s="42"/>
       <c r="CP9" s="56"/>
       <c r="CQ9" s="55"/>
@@ -6968,10 +6972,10 @@
       <c r="BK10" s="58"/>
       <c r="BL10" s="59"/>
       <c r="BM10" s="57"/>
-      <c r="BN10" s="127"/>
-      <c r="BO10" s="128"/>
-      <c r="BP10" s="129"/>
-      <c r="BQ10" s="127"/>
+      <c r="BN10" s="125"/>
+      <c r="BO10" s="126"/>
+      <c r="BP10" s="127"/>
+      <c r="BQ10" s="125"/>
       <c r="BR10" s="59"/>
       <c r="BS10" s="57"/>
       <c r="BT10" s="58"/>
@@ -6992,10 +6996,10 @@
       <c r="CI10" s="58"/>
       <c r="CJ10" s="59"/>
       <c r="CK10" s="57"/>
-      <c r="CL10" s="127"/>
-      <c r="CM10" s="128"/>
-      <c r="CN10" s="129"/>
-      <c r="CO10" s="127"/>
+      <c r="CL10" s="125"/>
+      <c r="CM10" s="126"/>
+      <c r="CN10" s="127"/>
+      <c r="CO10" s="125"/>
       <c r="CP10" s="59"/>
       <c r="CQ10" s="57"/>
       <c r="CR10" s="58"/>
@@ -7066,10 +7070,10 @@
       <c r="BK11" s="53"/>
       <c r="BL11" s="54"/>
       <c r="BM11" s="52"/>
-      <c r="BN11" s="122"/>
-      <c r="BO11" s="123"/>
-      <c r="BP11" s="124"/>
-      <c r="BQ11" s="122"/>
+      <c r="BN11" s="120"/>
+      <c r="BO11" s="121"/>
+      <c r="BP11" s="122"/>
+      <c r="BQ11" s="120"/>
       <c r="BR11" s="54"/>
       <c r="BS11" s="52"/>
       <c r="BT11" s="53"/>
@@ -7090,10 +7094,10 @@
       <c r="CI11" s="53"/>
       <c r="CJ11" s="54"/>
       <c r="CK11" s="52"/>
-      <c r="CL11" s="122"/>
-      <c r="CM11" s="123"/>
-      <c r="CN11" s="124"/>
-      <c r="CO11" s="122"/>
+      <c r="CL11" s="120"/>
+      <c r="CM11" s="121"/>
+      <c r="CN11" s="122"/>
+      <c r="CO11" s="120"/>
       <c r="CP11" s="54"/>
       <c r="CQ11" s="52"/>
       <c r="CR11" s="53"/>
@@ -7165,8 +7169,8 @@
       <c r="BL12" s="56"/>
       <c r="BM12" s="55"/>
       <c r="BN12" s="42"/>
-      <c r="BO12" s="125"/>
-      <c r="BP12" s="126"/>
+      <c r="BO12" s="123"/>
+      <c r="BP12" s="124"/>
       <c r="BQ12" s="42"/>
       <c r="BR12" s="56"/>
       <c r="BS12" s="55"/>
@@ -7189,8 +7193,8 @@
       <c r="CJ12" s="56"/>
       <c r="CK12" s="55"/>
       <c r="CL12" s="42"/>
-      <c r="CM12" s="125"/>
-      <c r="CN12" s="126"/>
+      <c r="CM12" s="123"/>
+      <c r="CN12" s="124"/>
       <c r="CO12" s="42"/>
       <c r="CP12" s="56"/>
       <c r="CQ12" s="55"/>
@@ -7262,10 +7266,10 @@
       <c r="BK13" s="58"/>
       <c r="BL13" s="59"/>
       <c r="BM13" s="57"/>
-      <c r="BN13" s="127"/>
-      <c r="BO13" s="128"/>
-      <c r="BP13" s="129"/>
-      <c r="BQ13" s="127"/>
+      <c r="BN13" s="125"/>
+      <c r="BO13" s="126"/>
+      <c r="BP13" s="127"/>
+      <c r="BQ13" s="125"/>
       <c r="BR13" s="59"/>
       <c r="BS13" s="57"/>
       <c r="BT13" s="58"/>
@@ -7286,10 +7290,10 @@
       <c r="CI13" s="58"/>
       <c r="CJ13" s="59"/>
       <c r="CK13" s="57"/>
-      <c r="CL13" s="127"/>
-      <c r="CM13" s="128"/>
-      <c r="CN13" s="129"/>
-      <c r="CO13" s="127"/>
+      <c r="CL13" s="125"/>
+      <c r="CM13" s="126"/>
+      <c r="CN13" s="127"/>
+      <c r="CO13" s="125"/>
       <c r="CP13" s="59"/>
       <c r="CQ13" s="57"/>
       <c r="CR13" s="58"/>
@@ -7360,10 +7364,10 @@
       <c r="BK14" s="53"/>
       <c r="BL14" s="54"/>
       <c r="BM14" s="52"/>
-      <c r="BN14" s="122"/>
-      <c r="BO14" s="123"/>
-      <c r="BP14" s="124"/>
-      <c r="BQ14" s="122"/>
+      <c r="BN14" s="120"/>
+      <c r="BO14" s="121"/>
+      <c r="BP14" s="122"/>
+      <c r="BQ14" s="120"/>
       <c r="BR14" s="54"/>
       <c r="BS14" s="52"/>
       <c r="BT14" s="53"/>
@@ -7384,10 +7388,10 @@
       <c r="CI14" s="53"/>
       <c r="CJ14" s="54"/>
       <c r="CK14" s="52"/>
-      <c r="CL14" s="122"/>
-      <c r="CM14" s="123"/>
-      <c r="CN14" s="124"/>
-      <c r="CO14" s="122"/>
+      <c r="CL14" s="120"/>
+      <c r="CM14" s="121"/>
+      <c r="CN14" s="122"/>
+      <c r="CO14" s="120"/>
       <c r="CP14" s="54"/>
       <c r="CQ14" s="52"/>
       <c r="CR14" s="53"/>
@@ -7459,8 +7463,8 @@
       <c r="BL15" s="56"/>
       <c r="BM15" s="55"/>
       <c r="BN15" s="42"/>
-      <c r="BO15" s="125"/>
-      <c r="BP15" s="126"/>
+      <c r="BO15" s="123"/>
+      <c r="BP15" s="124"/>
       <c r="BQ15" s="42"/>
       <c r="BR15" s="56"/>
       <c r="BS15" s="55"/>
@@ -7483,8 +7487,8 @@
       <c r="CJ15" s="56"/>
       <c r="CK15" s="55"/>
       <c r="CL15" s="42"/>
-      <c r="CM15" s="125"/>
-      <c r="CN15" s="126"/>
+      <c r="CM15" s="123"/>
+      <c r="CN15" s="124"/>
       <c r="CO15" s="42"/>
       <c r="CP15" s="56"/>
       <c r="CQ15" s="55"/>
@@ -7556,10 +7560,10 @@
       <c r="BK16" s="58"/>
       <c r="BL16" s="59"/>
       <c r="BM16" s="57"/>
-      <c r="BN16" s="127"/>
-      <c r="BO16" s="128"/>
-      <c r="BP16" s="129"/>
-      <c r="BQ16" s="127"/>
+      <c r="BN16" s="125"/>
+      <c r="BO16" s="126"/>
+      <c r="BP16" s="127"/>
+      <c r="BQ16" s="125"/>
       <c r="BR16" s="59"/>
       <c r="BS16" s="57"/>
       <c r="BT16" s="58"/>
@@ -7580,10 +7584,10 @@
       <c r="CI16" s="58"/>
       <c r="CJ16" s="59"/>
       <c r="CK16" s="57"/>
-      <c r="CL16" s="127"/>
-      <c r="CM16" s="128"/>
-      <c r="CN16" s="129"/>
-      <c r="CO16" s="127"/>
+      <c r="CL16" s="125"/>
+      <c r="CM16" s="126"/>
+      <c r="CN16" s="127"/>
+      <c r="CO16" s="125"/>
       <c r="CP16" s="59"/>
       <c r="CQ16" s="57"/>
       <c r="CR16" s="58"/>
@@ -7654,10 +7658,10 @@
       <c r="BK17" s="53"/>
       <c r="BL17" s="54"/>
       <c r="BM17" s="52"/>
-      <c r="BN17" s="122"/>
-      <c r="BO17" s="123"/>
-      <c r="BP17" s="124"/>
-      <c r="BQ17" s="122"/>
+      <c r="BN17" s="120"/>
+      <c r="BO17" s="121"/>
+      <c r="BP17" s="122"/>
+      <c r="BQ17" s="120"/>
       <c r="BR17" s="54"/>
       <c r="BS17" s="52"/>
       <c r="BT17" s="53"/>
@@ -7678,10 +7682,10 @@
       <c r="CI17" s="53"/>
       <c r="CJ17" s="54"/>
       <c r="CK17" s="52"/>
-      <c r="CL17" s="122"/>
-      <c r="CM17" s="123"/>
-      <c r="CN17" s="124"/>
-      <c r="CO17" s="122"/>
+      <c r="CL17" s="120"/>
+      <c r="CM17" s="121"/>
+      <c r="CN17" s="122"/>
+      <c r="CO17" s="120"/>
       <c r="CP17" s="54"/>
       <c r="CQ17" s="52"/>
       <c r="CR17" s="53"/>
@@ -7753,8 +7757,8 @@
       <c r="BL18" s="56"/>
       <c r="BM18" s="55"/>
       <c r="BN18" s="42"/>
-      <c r="BO18" s="125"/>
-      <c r="BP18" s="126"/>
+      <c r="BO18" s="123"/>
+      <c r="BP18" s="124"/>
       <c r="BQ18" s="42"/>
       <c r="BR18" s="56"/>
       <c r="BS18" s="55"/>
@@ -7777,8 +7781,8 @@
       <c r="CJ18" s="56"/>
       <c r="CK18" s="55"/>
       <c r="CL18" s="42"/>
-      <c r="CM18" s="125"/>
-      <c r="CN18" s="126"/>
+      <c r="CM18" s="123"/>
+      <c r="CN18" s="124"/>
       <c r="CO18" s="42"/>
       <c r="CP18" s="56"/>
       <c r="CQ18" s="55"/>
@@ -7850,10 +7854,10 @@
       <c r="BK19" s="58"/>
       <c r="BL19" s="59"/>
       <c r="BM19" s="57"/>
-      <c r="BN19" s="127"/>
-      <c r="BO19" s="128"/>
-      <c r="BP19" s="129"/>
-      <c r="BQ19" s="127"/>
+      <c r="BN19" s="125"/>
+      <c r="BO19" s="126"/>
+      <c r="BP19" s="127"/>
+      <c r="BQ19" s="125"/>
       <c r="BR19" s="59"/>
       <c r="BS19" s="57"/>
       <c r="BT19" s="58"/>
@@ -7874,10 +7878,10 @@
       <c r="CI19" s="58"/>
       <c r="CJ19" s="59"/>
       <c r="CK19" s="57"/>
-      <c r="CL19" s="127"/>
-      <c r="CM19" s="128"/>
-      <c r="CN19" s="129"/>
-      <c r="CO19" s="127"/>
+      <c r="CL19" s="125"/>
+      <c r="CM19" s="126"/>
+      <c r="CN19" s="127"/>
+      <c r="CO19" s="125"/>
       <c r="CP19" s="59"/>
       <c r="CQ19" s="57"/>
       <c r="CR19" s="58"/>
@@ -7948,10 +7952,10 @@
       <c r="BK20" s="53"/>
       <c r="BL20" s="54"/>
       <c r="BM20" s="52"/>
-      <c r="BN20" s="122"/>
-      <c r="BO20" s="123"/>
-      <c r="BP20" s="124"/>
-      <c r="BQ20" s="122"/>
+      <c r="BN20" s="120"/>
+      <c r="BO20" s="121"/>
+      <c r="BP20" s="122"/>
+      <c r="BQ20" s="120"/>
       <c r="BR20" s="54"/>
       <c r="BS20" s="52"/>
       <c r="BT20" s="53"/>
@@ -7972,10 +7976,10 @@
       <c r="CI20" s="53"/>
       <c r="CJ20" s="54"/>
       <c r="CK20" s="52"/>
-      <c r="CL20" s="122"/>
-      <c r="CM20" s="123"/>
-      <c r="CN20" s="124"/>
-      <c r="CO20" s="122"/>
+      <c r="CL20" s="120"/>
+      <c r="CM20" s="121"/>
+      <c r="CN20" s="122"/>
+      <c r="CO20" s="120"/>
       <c r="CP20" s="54"/>
       <c r="CQ20" s="52"/>
       <c r="CR20" s="53"/>
@@ -8047,8 +8051,8 @@
       <c r="BL21" s="56"/>
       <c r="BM21" s="55"/>
       <c r="BN21" s="42"/>
-      <c r="BO21" s="125"/>
-      <c r="BP21" s="126"/>
+      <c r="BO21" s="123"/>
+      <c r="BP21" s="124"/>
       <c r="BQ21" s="42"/>
       <c r="BR21" s="56"/>
       <c r="BS21" s="55"/>
@@ -8071,8 +8075,8 @@
       <c r="CJ21" s="56"/>
       <c r="CK21" s="55"/>
       <c r="CL21" s="42"/>
-      <c r="CM21" s="125"/>
-      <c r="CN21" s="126"/>
+      <c r="CM21" s="123"/>
+      <c r="CN21" s="124"/>
       <c r="CO21" s="42"/>
       <c r="CP21" s="56"/>
       <c r="CQ21" s="55"/>
@@ -8144,10 +8148,10 @@
       <c r="BK22" s="58"/>
       <c r="BL22" s="59"/>
       <c r="BM22" s="57"/>
-      <c r="BN22" s="127"/>
-      <c r="BO22" s="128"/>
-      <c r="BP22" s="129"/>
-      <c r="BQ22" s="127"/>
+      <c r="BN22" s="125"/>
+      <c r="BO22" s="126"/>
+      <c r="BP22" s="127"/>
+      <c r="BQ22" s="125"/>
       <c r="BR22" s="59"/>
       <c r="BS22" s="57"/>
       <c r="BT22" s="58"/>
@@ -8168,10 +8172,10 @@
       <c r="CI22" s="58"/>
       <c r="CJ22" s="59"/>
       <c r="CK22" s="57"/>
-      <c r="CL22" s="127"/>
-      <c r="CM22" s="128"/>
-      <c r="CN22" s="129"/>
-      <c r="CO22" s="127"/>
+      <c r="CL22" s="125"/>
+      <c r="CM22" s="126"/>
+      <c r="CN22" s="127"/>
+      <c r="CO22" s="125"/>
       <c r="CP22" s="59"/>
       <c r="CQ22" s="57"/>
       <c r="CR22" s="58"/>
@@ -49923,4 +49927,2450 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>4</v>
+      </c>
+      <c r="B1">
+        <f>WellWidth/2</f>
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>-6</v>
+      </c>
+      <c r="E1">
+        <f>D1+1</f>
+        <v>-5</v>
+      </c>
+      <c r="F1">
+        <f t="shared" ref="F1:Q1" si="0">E1+1</f>
+        <v>-4</v>
+      </c>
+      <c r="G1">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="H1">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="I1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="J1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Q1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <f>INT(D1/WellWidth)</f>
+        <v>-2</v>
+      </c>
+      <c r="E2">
+        <f>INT(E1/WellWidth)*WellWidth</f>
+        <v>-8</v>
+      </c>
+      <c r="F2">
+        <f>INT(F1/WellWidth)*WellWidth</f>
+        <v>-4</v>
+      </c>
+      <c r="G2">
+        <f>INT(G1/WellWidth)*WellWidth</f>
+        <v>-4</v>
+      </c>
+      <c r="H2">
+        <f>INT(H1/WellWidth)*WellWidth</f>
+        <v>-4</v>
+      </c>
+      <c r="I2">
+        <f>INT(I1/WellWidth)*WellWidth</f>
+        <v>-4</v>
+      </c>
+      <c r="J2">
+        <f>INT(J1/WellWidth)*WellWidth</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>INT(K1/WellWidth)*WellWidth</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>INT(L1/WellWidth)*WellWidth</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>INT(M1/WellWidth)*WellWidth</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>INT(N1/WellWidth)*WellWidth</f>
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <f>INT(O1/WellWidth)*WellWidth</f>
+        <v>4</v>
+      </c>
+      <c r="P2">
+        <f>INT(P1/WellWidth)*WellWidth</f>
+        <v>4</v>
+      </c>
+      <c r="Q2">
+        <f>INT(Q1/WellWidth)*WellWidth</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>-16</v>
+      </c>
+      <c r="B3">
+        <f>INT(A3/WellWidth)*WellWidth</f>
+        <v>-16</v>
+      </c>
+      <c r="C3">
+        <f>INT(A3/WellWidth)</f>
+        <v>-4</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:Q18" si="1">IF(ISODD($C3),D$2,D$2+$B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>+A3+1</f>
+        <v>-15</v>
+      </c>
+      <c r="B4">
+        <f>INT(A4/WellWidth)*WellWidth</f>
+        <v>-16</v>
+      </c>
+      <c r="C4">
+        <f>INT(A4/WellWidth)</f>
+        <v>-4</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" ref="A5:A31" si="2">+A4+1</f>
+        <v>-14</v>
+      </c>
+      <c r="B5">
+        <f>INT(A5/WellWidth)*WellWidth</f>
+        <v>-16</v>
+      </c>
+      <c r="C5">
+        <f>INT(A5/WellWidth)</f>
+        <v>-4</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="2"/>
+        <v>-13</v>
+      </c>
+      <c r="B6">
+        <f>INT(A6/WellWidth)*WellWidth</f>
+        <v>-16</v>
+      </c>
+      <c r="C6">
+        <f>INT(A6/WellWidth)</f>
+        <v>-4</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="2"/>
+        <v>-12</v>
+      </c>
+      <c r="B7">
+        <f>INT(A7/WellWidth)*WellWidth</f>
+        <v>-12</v>
+      </c>
+      <c r="C7">
+        <f>INT(A7/WellWidth)</f>
+        <v>-3</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="2"/>
+        <v>-11</v>
+      </c>
+      <c r="B8">
+        <f>INT(A8/WellWidth)*WellWidth</f>
+        <v>-12</v>
+      </c>
+      <c r="C8">
+        <f>INT(A8/WellWidth)</f>
+        <v>-3</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="B9">
+        <f>INT(A9/WellWidth)*WellWidth</f>
+        <v>-12</v>
+      </c>
+      <c r="C9">
+        <f>INT(A9/WellWidth)</f>
+        <v>-3</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="2"/>
+        <v>-9</v>
+      </c>
+      <c r="B10">
+        <f>INT(A10/WellWidth)*WellWidth</f>
+        <v>-12</v>
+      </c>
+      <c r="C10">
+        <f>INT(A10/WellWidth)</f>
+        <v>-3</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="2"/>
+        <v>-8</v>
+      </c>
+      <c r="B11">
+        <f>INT(A11/WellWidth)*WellWidth</f>
+        <v>-8</v>
+      </c>
+      <c r="C11">
+        <f>INT(A11/WellWidth)</f>
+        <v>-2</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="2"/>
+        <v>-7</v>
+      </c>
+      <c r="B12">
+        <f>INT(A12/WellWidth)*WellWidth</f>
+        <v>-8</v>
+      </c>
+      <c r="C12">
+        <f>INT(A12/WellWidth)</f>
+        <v>-2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="B13">
+        <f>INT(A13/WellWidth)*WellWidth</f>
+        <v>-8</v>
+      </c>
+      <c r="C13">
+        <f>INT(A13/WellWidth)</f>
+        <v>-2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+      <c r="B14">
+        <f>INT(A14/WellWidth)*WellWidth</f>
+        <v>-8</v>
+      </c>
+      <c r="C14">
+        <f>INT(A14/WellWidth)</f>
+        <v>-2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="B15">
+        <f>INT(A15/WellWidth)*WellWidth</f>
+        <v>-4</v>
+      </c>
+      <c r="C15">
+        <f>INT(A15/WellWidth)</f>
+        <v>-1</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="B16">
+        <f>INT(A16/WellWidth)*WellWidth</f>
+        <v>-4</v>
+      </c>
+      <c r="C16">
+        <f>INT(A16/WellWidth)</f>
+        <v>-1</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="B17">
+        <f>INT(A17/WellWidth)*WellWidth</f>
+        <v>-4</v>
+      </c>
+      <c r="C17">
+        <f>INT(A17/WellWidth)</f>
+        <v>-1</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="B18">
+        <f>INT(A18/WellWidth)*WellWidth</f>
+        <v>-4</v>
+      </c>
+      <c r="C18">
+        <f>INT(A18/WellWidth)</f>
+        <v>-1</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <f>INT(A19/WellWidth)*WellWidth</f>
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <f>INT(A19/WellWidth)</f>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19:Q35" si="3">IF(ISODD($C19),D$2,D$2+$B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:Q34" si="4">IF(ISODD($C19),E$2,E$2+$B$1)</f>
+        <v>-6</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <f>INT(A20/WellWidth)*WellWidth</f>
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <f>INT(A20/WellWidth)</f>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="4"/>
+        <v>-6</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <f>INT(A21/WellWidth)*WellWidth</f>
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <f>INT(A21/WellWidth)</f>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="4"/>
+        <v>-6</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <f>INT(A22/WellWidth)*WellWidth</f>
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <f>INT(A22/WellWidth)</f>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="4"/>
+        <v>-6</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <f>INT(A23/WellWidth)*WellWidth</f>
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <f>INT(A23/WellWidth)</f>
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="4"/>
+        <v>-8</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <f>INT(A24/WellWidth)*WellWidth</f>
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <f>INT(A24/WellWidth)</f>
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="4"/>
+        <v>-8</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <f>INT(A25/WellWidth)*WellWidth</f>
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <f>INT(A25/WellWidth)</f>
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="4"/>
+        <v>-8</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <f>INT(A26/WellWidth)*WellWidth</f>
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <f>INT(A26/WellWidth)</f>
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="4"/>
+        <v>-8</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <f>INT(A27/WellWidth)*WellWidth</f>
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <f>INT(A27/WellWidth)</f>
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="4"/>
+        <v>-6</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <f>INT(A28/WellWidth)*WellWidth</f>
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <f>INT(A28/WellWidth)</f>
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="4"/>
+        <v>-6</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <f>INT(A29/WellWidth)*WellWidth</f>
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <f>INT(A29/WellWidth)</f>
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="4"/>
+        <v>-6</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <f>INT(A30/WellWidth)*WellWidth</f>
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <f>INT(A30/WellWidth)</f>
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="4"/>
+        <v>-6</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <f>INT(A31/WellWidth)*WellWidth</f>
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <f>INT(A31/WellWidth)</f>
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="4"/>
+        <v>-8</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f t="shared" ref="A32:A35" si="5">+A31+1</f>
+        <v>13</v>
+      </c>
+      <c r="B32">
+        <f>INT(A32/WellWidth)*WellWidth</f>
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <f>INT(A32/WellWidth)</f>
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="4"/>
+        <v>-8</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="B33">
+        <f>INT(A33/WellWidth)*WellWidth</f>
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <f>INT(A33/WellWidth)</f>
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="4"/>
+        <v>-8</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="B34">
+        <f>INT(A34/WellWidth)*WellWidth</f>
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <f>INT(A34/WellWidth)</f>
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="4"/>
+        <v>-8</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="B35">
+        <f>INT(A35/WellWidth)*WellWidth</f>
+        <v>16</v>
+      </c>
+      <c r="C35">
+        <f>INT(A35/WellWidth)</f>
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>-6</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/notes/WellThoughts.xlsx
+++ b/notes/WellThoughts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="48" windowWidth="16260" windowHeight="9000" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="48" windowWidth="16260" windowHeight="9000" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Oddz" sheetId="1" r:id="rId1"/>
@@ -15,10 +15,14 @@
     <sheet name="Hex3" sheetId="6" r:id="rId6"/>
     <sheet name="Hex4" sheetId="8" r:id="rId7"/>
     <sheet name="Calculations" sheetId="7" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
+    <sheet name="Hex step" sheetId="9" r:id="rId9"/>
+    <sheet name="VolcanoShape" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="WellWidth">Sheet1!$A$1</definedName>
+    <definedName name="HalfPi">VolcanoShape!$F$2</definedName>
+    <definedName name="Steps">VolcanoShape!$G$1</definedName>
+    <definedName name="TwoPi">VolcanoShape!$F$1</definedName>
+    <definedName name="WellWidth">'Hex step'!$A$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -792,6 +796,526 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>VolcanoShape!$D$1:$D$128</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.022718974137975E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4076366639015911E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4117450176094928E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6073597983847847E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4984373402728013E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1529832133895532E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9227967408489597E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8060233744356631E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8005353438278331E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.9039367825822531E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.1135694999863941E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.4265193848727382E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.8396234259677584E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1134947733186315</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.12952443732252045</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.14644660940672627</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.16422052257649083</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18280335791817726</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.20215034775378332</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.22221488349019891</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.24294862790338917</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.26430163158700115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.28622245328485896</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.30865828381745508</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.33155507330389</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.35485766137276886</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.37850991004836804</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.4024548389919359</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.42663476277231915</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.45099142983521967</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.47546616283629095</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.52453383716370905</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.54900857016478033</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.57336523722768085</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.5975451610080641</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.62149008995163202</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.64514233862723114</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.66844492669611</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.69134171618254492</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.71377754671514093</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.73569836841299885</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.75705137209661078</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.77778511650980109</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.79784965224621662</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.81719664208182263</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.83577947742350922</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.85355339059327373</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.8704755626774795</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.88650522668136844</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.90160376574032242</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.91573480615127267</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.92886430500013606</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.94096063217417747</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.95199464656172172</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.96193976625564337</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.97077203259151035</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.97847016786610452</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.98501562659727204</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.99039264020161522</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.99458825498239056</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.99759236333609835</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.9993977281025862</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.9993977281025862</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.99759236333609846</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.99458825498239056</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.99039264020161522</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.98501562659727204</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.97847016786610452</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.97077203259151035</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.96193976625564337</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.95199464656172172</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.94096063217417747</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.92886430500013606</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.91573480615127267</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.90160376574032242</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.88650522668136855</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.8704755626774795</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.85355339059327373</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.83577947742350922</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.81719664208182285</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.79784965224621662</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.77778511650980109</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.75705137209661089</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.73569836841299896</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.71377754671514126</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.69134171618254514</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.66844492669610989</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.64514233862723125</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.62149008995163202</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.59754516100806432</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.57336523722768118</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.54900857016478022</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.52453383716370894</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.50000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.47546616283629112</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.45099142983521995</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.42663476277231899</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.40245483899193579</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.37850991004836809</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.35485766137276897</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.33155507330389017</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.30865828381745497</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.2862224532848589</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.26430163158700115</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.24294862790338922</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.22221488349019902</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.20215034775378354</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.1828033579181772</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.16422052257649078</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.14644660940672627</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.12952443732252056</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.11349477331863167</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9.8396234259677473E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>8.4265193848727382E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>7.1135694999863996E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5.9039367825822531E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>4.8005353438278442E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3.8060233744356742E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.9227967408489597E-2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.1529832133895588E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.4984373402728013E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>9.6073597983848402E-3</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>5.4117450176095483E-3</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.4076366639015356E-3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>6.022718974137975E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="186800384"/>
+        <c:axId val="186830848"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="186800384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="186830848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="186830848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="186800384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1639,6 +2163,2343 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H128"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <f t="shared" ref="B1:B32" si="0">A1/Steps</f>
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <f t="shared" ref="C1:C32" si="1">B1*TwoPi-HalfPi</f>
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="D1">
+        <f>(SIN(C1)+1)/2</f>
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <f>2*PI()</f>
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="G1">
+        <f>H1*H2</f>
+        <v>128</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <f>A1+1</f>
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f t="shared" si="0"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="C2">
+        <f t="shared" si="1"/>
+        <v>-1.521708941582556</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D65" si="2">(SIN(C2)+1)/2</f>
+        <v>6.022718974137975E-4</v>
+      </c>
+      <c r="F2">
+        <f>PI()/2</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="H2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f t="shared" ref="A3:A66" si="3">A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="1"/>
+        <v>-1.4726215563702154</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="2"/>
+        <v>2.4076366639015911E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>2.34375E-2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>-1.4235341711578751</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>5.4117450176094928E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>-1.3744467859455345</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>9.6073597983847847E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>3.90625E-2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>-1.3253594007331939</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>1.4984373402728013E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>4.6875E-2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>-1.2762720155208536</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>2.1529832133895532E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>5.46875E-2</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>-1.227184630308513</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>2.9227967408489597E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>-1.1780972450961724</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>3.8060233744356631E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>7.03125E-2</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>-1.1290098598838318</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>4.8005353438278331E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>7.8125E-2</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>-1.0799224746714913</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>5.9039367825822531E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>8.59375E-2</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>-1.0308350894591509</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>7.1135694999863941E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>-0.98174770424681035</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>8.4265193848727382E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0.1015625</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>-0.93266031903446978</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>9.8396234259677584E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0.109375</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>-0.88357293382212931</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>0.1134947733186315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0.1171875</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>-0.83448554860978885</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>0.12952443732252045</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>-0.78539816339744828</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>0.14644660940672627</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0.1328125</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>-0.73631077818510771</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>0.16422052257649083</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>0.140625</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>-0.68722339297276724</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>0.18280335791817726</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>0.1484375</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>-0.63813600776042678</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>0.20215034775378332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>0.15625</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>-0.58904862254808621</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>0.22221488349019891</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>0.1640625</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>-0.53996123733574564</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>0.24294862790338917</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>0.171875</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>-0.49087385212340529</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>0.26430163158700115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>0.1796875</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>-0.44178646691106471</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>0.28622245328485896</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>0.1875</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>-0.39269908169872414</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>0.30865828381745508</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>0.1953125</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>-0.34361169648638357</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>0.33155507330389</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>0.203125</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>-0.29452431127404299</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>0.35485766137276886</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>0.2109375</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>-0.24543692606170264</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>0.37850991004836804</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>0.21875</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>-0.19634954084936207</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>0.4024548389919359</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>0.2265625</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>-0.1472621556370215</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>0.42663476277231915</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>0.234375</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>-9.8174770424681146E-2</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>0.45099142983521967</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>0.2421875</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>-4.9087385212340573E-2</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>0.47546616283629095</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33:B64" si="4">A33/Steps</f>
+        <v>0.25</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:C64" si="5">B33*TwoPi-HalfPi</f>
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="4"/>
+        <v>0.2578125</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="5"/>
+        <v>4.9087385212340573E-2</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>0.52453383716370905</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="4"/>
+        <v>0.265625</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="5"/>
+        <v>9.8174770424681146E-2</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>0.54900857016478033</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="4"/>
+        <v>0.2734375</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="5"/>
+        <v>0.1472621556370215</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>0.57336523722768085</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="4"/>
+        <v>0.28125</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="5"/>
+        <v>0.19634954084936207</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>0.5975451610080641</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="4"/>
+        <v>0.2890625</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="5"/>
+        <v>0.24543692606170264</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>0.62149008995163202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="4"/>
+        <v>0.296875</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="5"/>
+        <v>0.29452431127404299</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>0.64514233862723114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="4"/>
+        <v>0.3046875</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="5"/>
+        <v>0.34361169648638357</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>0.66844492669611</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="4"/>
+        <v>0.3125</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="5"/>
+        <v>0.39269908169872414</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="2"/>
+        <v>0.69134171618254492</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="4"/>
+        <v>0.3203125</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="5"/>
+        <v>0.44178646691106449</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="2"/>
+        <v>0.71377754671514093</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="4"/>
+        <v>0.328125</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="5"/>
+        <v>0.49087385212340529</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="2"/>
+        <v>0.73569836841299885</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="4"/>
+        <v>0.3359375</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="5"/>
+        <v>0.53996123733574564</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="2"/>
+        <v>0.75705137209661078</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="4"/>
+        <v>0.34375</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="5"/>
+        <v>0.58904862254808599</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="2"/>
+        <v>0.77778511650980109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="4"/>
+        <v>0.3515625</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="5"/>
+        <v>0.63813600776042678</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="2"/>
+        <v>0.79784965224621662</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="4"/>
+        <v>0.359375</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="5"/>
+        <v>0.68722339297276713</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="2"/>
+        <v>0.81719664208182263</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="4"/>
+        <v>0.3671875</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="5"/>
+        <v>0.73631077818510793</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="2"/>
+        <v>0.83577947742350922</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="4"/>
+        <v>0.375</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="5"/>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="2"/>
+        <v>0.85355339059327373</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="4"/>
+        <v>0.3828125</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="5"/>
+        <v>0.83448554860978863</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="2"/>
+        <v>0.8704755626774795</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="4"/>
+        <v>0.390625</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="5"/>
+        <v>0.88357293382212942</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="2"/>
+        <v>0.88650522668136844</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="4"/>
+        <v>0.3984375</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="5"/>
+        <v>0.93266031903446978</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>0.90160376574032242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="4"/>
+        <v>0.40625</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="5"/>
+        <v>0.98174770424681057</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="2"/>
+        <v>0.91573480615127267</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="4"/>
+        <v>0.4140625</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="5"/>
+        <v>1.0308350894591509</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="2"/>
+        <v>0.92886430500013606</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="4"/>
+        <v>0.421875</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="5"/>
+        <v>1.0799224746714913</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="2"/>
+        <v>0.94096063217417747</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="4"/>
+        <v>0.4296875</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="5"/>
+        <v>1.1290098598838321</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="2"/>
+        <v>0.95199464656172172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="4"/>
+        <v>0.4375</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="5"/>
+        <v>1.1780972450961724</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="2"/>
+        <v>0.96193976625564337</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="4"/>
+        <v>0.4453125</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="5"/>
+        <v>1.2271846303085128</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="2"/>
+        <v>0.97077203259151035</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="4"/>
+        <v>0.453125</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="5"/>
+        <v>1.2762720155208536</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="2"/>
+        <v>0.97847016786610452</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="4"/>
+        <v>0.4609375</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="5"/>
+        <v>1.3253594007331939</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="2"/>
+        <v>0.98501562659727204</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="4"/>
+        <v>0.46875</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="5"/>
+        <v>1.3744467859455343</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="2"/>
+        <v>0.99039264020161522</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="4"/>
+        <v>0.4765625</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="5"/>
+        <v>1.4235341711578751</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="2"/>
+        <v>0.99458825498239056</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="4"/>
+        <v>0.484375</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="5"/>
+        <v>1.4726215563702154</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="2"/>
+        <v>0.99759236333609835</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="4"/>
+        <v>0.4921875</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="5"/>
+        <v>1.5217089415825562</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="2"/>
+        <v>0.9993977281025862</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ref="B65:B96" si="6">A65/Steps</f>
+        <v>0.5</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ref="C65:C96" si="7">B65*TwoPi-HalfPi</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="6"/>
+        <v>0.5078125</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="7"/>
+        <v>1.6198837120072369</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ref="D66:D128" si="8">(SIN(C66)+1)/2</f>
+        <v>0.9993977281025862</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <f t="shared" ref="A67:A128" si="9">A66+1</f>
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="6"/>
+        <v>0.515625</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="7"/>
+        <v>1.6689710972195777</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="8"/>
+        <v>0.99759236333609846</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <f t="shared" si="9"/>
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="6"/>
+        <v>0.5234375</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="7"/>
+        <v>1.7180584824319181</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="8"/>
+        <v>0.99458825498239056</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <f t="shared" si="9"/>
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="6"/>
+        <v>0.53125</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="7"/>
+        <v>1.7671458676442588</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="8"/>
+        <v>0.99039264020161522</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <f t="shared" si="9"/>
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="6"/>
+        <v>0.5390625</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="7"/>
+        <v>1.8162332528565992</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="8"/>
+        <v>0.98501562659727204</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="6"/>
+        <v>0.546875</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="7"/>
+        <v>1.8653206380689396</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="8"/>
+        <v>0.97847016786610452</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="6"/>
+        <v>0.5546875</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="7"/>
+        <v>1.9144080232812803</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="8"/>
+        <v>0.97077203259151035</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <f t="shared" si="9"/>
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="6"/>
+        <v>0.5625</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="7"/>
+        <v>1.9634954084936207</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="8"/>
+        <v>0.96193976625564337</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <f t="shared" si="9"/>
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="6"/>
+        <v>0.5703125</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="7"/>
+        <v>2.012582793705961</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="8"/>
+        <v>0.95199464656172172</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <f t="shared" si="9"/>
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="6"/>
+        <v>0.578125</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="7"/>
+        <v>2.0616701789183018</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="8"/>
+        <v>0.94096063217417747</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <f t="shared" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="6"/>
+        <v>0.5859375</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="7"/>
+        <v>2.1107575641306422</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="8"/>
+        <v>0.92886430500013606</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <f t="shared" si="9"/>
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="6"/>
+        <v>0.59375</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="7"/>
+        <v>2.1598449493429825</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="8"/>
+        <v>0.91573480615127267</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <f t="shared" si="9"/>
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="6"/>
+        <v>0.6015625</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="7"/>
+        <v>2.2089323345553233</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="8"/>
+        <v>0.90160376574032242</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <f t="shared" si="9"/>
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="6"/>
+        <v>0.609375</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="7"/>
+        <v>2.2580197197676637</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="8"/>
+        <v>0.88650522668136855</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <f t="shared" si="9"/>
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="6"/>
+        <v>0.6171875</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="7"/>
+        <v>2.3071071049800045</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="8"/>
+        <v>0.8704755626774795</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="6"/>
+        <v>0.625</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="7"/>
+        <v>2.3561944901923448</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="8"/>
+        <v>0.85355339059327373</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <f t="shared" si="9"/>
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="6"/>
+        <v>0.6328125</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="7"/>
+        <v>2.4052818754046852</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="8"/>
+        <v>0.83577947742350922</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <f t="shared" si="9"/>
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="6"/>
+        <v>0.640625</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="7"/>
+        <v>2.4543692606170255</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="8"/>
+        <v>0.81719664208182285</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <f t="shared" si="9"/>
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="6"/>
+        <v>0.6484375</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="7"/>
+        <v>2.5034566458293668</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="8"/>
+        <v>0.79784965224621662</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <f t="shared" si="9"/>
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="6"/>
+        <v>0.65625</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="7"/>
+        <v>2.5525440310417071</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="8"/>
+        <v>0.77778511650980109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <f t="shared" si="9"/>
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="6"/>
+        <v>0.6640625</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="7"/>
+        <v>2.6016314162540475</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="8"/>
+        <v>0.75705137209661089</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <f t="shared" si="9"/>
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="6"/>
+        <v>0.671875</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="7"/>
+        <v>2.6507188014663878</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="8"/>
+        <v>0.73569836841299896</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <f t="shared" si="9"/>
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="6"/>
+        <v>0.6796875</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="7"/>
+        <v>2.6998061866787282</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="8"/>
+        <v>0.71377754671514126</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <f t="shared" si="9"/>
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="6"/>
+        <v>0.6875</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="7"/>
+        <v>2.7488935718910685</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="8"/>
+        <v>0.69134171618254514</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <f t="shared" si="9"/>
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="6"/>
+        <v>0.6953125</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="7"/>
+        <v>2.7979809571034098</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="8"/>
+        <v>0.66844492669610989</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="6"/>
+        <v>0.703125</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="7"/>
+        <v>2.8470683423157501</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="8"/>
+        <v>0.64514233862723125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <f t="shared" si="9"/>
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="6"/>
+        <v>0.7109375</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="7"/>
+        <v>2.8961557275280905</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="8"/>
+        <v>0.62149008995163202</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <f t="shared" si="9"/>
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="6"/>
+        <v>0.71875</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="7"/>
+        <v>2.9452431127404308</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="8"/>
+        <v>0.59754516100806432</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <f t="shared" si="9"/>
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="6"/>
+        <v>0.7265625</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="7"/>
+        <v>2.9943304979527712</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="8"/>
+        <v>0.57336523722768118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <f t="shared" si="9"/>
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="6"/>
+        <v>0.734375</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="7"/>
+        <v>3.0434178831651124</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="8"/>
+        <v>0.54900857016478022</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <f t="shared" si="9"/>
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="6"/>
+        <v>0.7421875</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="7"/>
+        <v>3.0925052683774528</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="8"/>
+        <v>0.52453383716370894</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <f t="shared" si="9"/>
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <f t="shared" ref="B97:B128" si="10">A97/Steps</f>
+        <v>0.75</v>
+      </c>
+      <c r="C97">
+        <f t="shared" ref="C97:C128" si="11">B97*TwoPi-HalfPi</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="8"/>
+        <v>0.50000000000000011</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="10"/>
+        <v>0.7578125</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="11"/>
+        <v>3.1906800388021335</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="8"/>
+        <v>0.47546616283629112</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <f t="shared" si="9"/>
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="10"/>
+        <v>0.765625</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="11"/>
+        <v>3.2397674240144738</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="8"/>
+        <v>0.45099142983521995</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <f t="shared" si="9"/>
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="10"/>
+        <v>0.7734375</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="11"/>
+        <v>3.2888548092268151</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="8"/>
+        <v>0.42663476277231899</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="10"/>
+        <v>0.78125</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="11"/>
+        <v>3.3379421944391554</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="8"/>
+        <v>0.40245483899193579</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <f t="shared" si="9"/>
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="10"/>
+        <v>0.7890625</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="11"/>
+        <v>3.3870295796514958</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="8"/>
+        <v>0.37850991004836809</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <f t="shared" si="9"/>
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="10"/>
+        <v>0.796875</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="11"/>
+        <v>3.4361169648638361</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="8"/>
+        <v>0.35485766137276897</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <f t="shared" si="9"/>
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="10"/>
+        <v>0.8046875</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="11"/>
+        <v>3.4852043500761765</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="8"/>
+        <v>0.33155507330389017</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <f t="shared" si="9"/>
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="10"/>
+        <v>0.8125</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="11"/>
+        <v>3.5342917352885177</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="8"/>
+        <v>0.30865828381745497</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <f t="shared" si="9"/>
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="10"/>
+        <v>0.8203125</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="11"/>
+        <v>3.5833791205008581</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="8"/>
+        <v>0.2862224532848589</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <f t="shared" si="9"/>
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="10"/>
+        <v>0.828125</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="11"/>
+        <v>3.6324665057131984</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="8"/>
+        <v>0.26430163158700115</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <f t="shared" si="9"/>
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="10"/>
+        <v>0.8359375</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="11"/>
+        <v>3.6815538909255388</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="8"/>
+        <v>0.24294862790338922</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <f t="shared" si="9"/>
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="10"/>
+        <v>0.84375</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="11"/>
+        <v>3.7306412761378791</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="8"/>
+        <v>0.22221488349019902</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <f t="shared" si="9"/>
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="10"/>
+        <v>0.8515625</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="11"/>
+        <v>3.7797286613502195</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="8"/>
+        <v>0.20215034775378354</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <f t="shared" si="9"/>
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="10"/>
+        <v>0.859375</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="11"/>
+        <v>3.8288160465625607</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="8"/>
+        <v>0.1828033579181772</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <f t="shared" si="9"/>
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="10"/>
+        <v>0.8671875</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="11"/>
+        <v>3.877903431774901</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="8"/>
+        <v>0.16422052257649078</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <f t="shared" si="9"/>
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="10"/>
+        <v>0.875</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="11"/>
+        <v>3.9269908169872414</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="8"/>
+        <v>0.14644660940672627</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <f t="shared" si="9"/>
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="10"/>
+        <v>0.8828125</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="11"/>
+        <v>3.9760782021995817</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="8"/>
+        <v>0.12952443732252056</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <f t="shared" si="9"/>
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="10"/>
+        <v>0.890625</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="11"/>
+        <v>4.0251655874119221</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="8"/>
+        <v>0.11349477331863167</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <f t="shared" si="9"/>
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="10"/>
+        <v>0.8984375</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="11"/>
+        <v>4.0742529726242633</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="8"/>
+        <v>9.8396234259677473E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <f t="shared" si="9"/>
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="10"/>
+        <v>0.90625</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="11"/>
+        <v>4.1233403578366037</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="8"/>
+        <v>8.4265193848727382E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <f t="shared" si="9"/>
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="10"/>
+        <v>0.9140625</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="11"/>
+        <v>4.172427743048944</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="8"/>
+        <v>7.1135694999863996E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <f t="shared" si="9"/>
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="10"/>
+        <v>0.921875</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="11"/>
+        <v>4.2215151282612844</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="8"/>
+        <v>5.9039367825822531E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <f t="shared" si="9"/>
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="10"/>
+        <v>0.9296875</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="11"/>
+        <v>4.2706025134736247</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="8"/>
+        <v>4.8005353438278442E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <f t="shared" si="9"/>
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="10"/>
+        <v>0.9375</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="11"/>
+        <v>4.3196898986859651</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="8"/>
+        <v>3.8060233744356742E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <f t="shared" si="9"/>
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="10"/>
+        <v>0.9453125</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="11"/>
+        <v>4.3687772838983063</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="8"/>
+        <v>2.9227967408489597E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <f t="shared" si="9"/>
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="10"/>
+        <v>0.953125</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="11"/>
+        <v>4.4178646691106467</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="8"/>
+        <v>2.1529832133895588E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <f t="shared" si="9"/>
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="10"/>
+        <v>0.9609375</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="11"/>
+        <v>4.466952054322987</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="8"/>
+        <v>1.4984373402728013E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <f t="shared" si="9"/>
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="10"/>
+        <v>0.96875</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="11"/>
+        <v>4.5160394395353274</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="8"/>
+        <v>9.6073597983848402E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <f t="shared" si="9"/>
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="10"/>
+        <v>0.9765625</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="11"/>
+        <v>4.5651268247476677</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="8"/>
+        <v>5.4117450176095483E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <f t="shared" si="9"/>
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="10"/>
+        <v>0.984375</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="11"/>
+        <v>4.614214209960009</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="8"/>
+        <v>2.4076366639015356E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <f t="shared" si="9"/>
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="10"/>
+        <v>0.9921875</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="11"/>
+        <v>4.6633015951723493</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="8"/>
+        <v>6.022718974137975E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -49933,8 +52794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -50009,55 +52870,55 @@
         <v>-2</v>
       </c>
       <c r="E2">
-        <f>INT(E1/WellWidth)*WellWidth</f>
+        <f t="shared" ref="E2:Q2" si="1">INT(E1/WellWidth)*WellWidth</f>
         <v>-8</v>
       </c>
       <c r="F2">
-        <f>INT(F1/WellWidth)*WellWidth</f>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
       <c r="G2">
-        <f>INT(G1/WellWidth)*WellWidth</f>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
       <c r="H2">
-        <f>INT(H1/WellWidth)*WellWidth</f>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
       <c r="I2">
-        <f>INT(I1/WellWidth)*WellWidth</f>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
       <c r="J2">
-        <f>INT(J1/WellWidth)*WellWidth</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K2">
-        <f>INT(K1/WellWidth)*WellWidth</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L2">
-        <f>INT(L1/WellWidth)*WellWidth</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M2">
-        <f>INT(M1/WellWidth)*WellWidth</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N2">
-        <f>INT(N1/WellWidth)*WellWidth</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="O2">
-        <f>INT(O1/WellWidth)*WellWidth</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="P2">
-        <f>INT(P1/WellWidth)*WellWidth</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Q2">
-        <f>INT(Q1/WellWidth)*WellWidth</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -50066,67 +52927,67 @@
         <v>-16</v>
       </c>
       <c r="B3">
-        <f>INT(A3/WellWidth)*WellWidth</f>
+        <f t="shared" ref="B3:B35" si="2">INT(A3/WellWidth)*WellWidth</f>
         <v>-16</v>
       </c>
       <c r="C3">
-        <f>INT(A3/WellWidth)</f>
+        <f t="shared" ref="C3:C35" si="3">INT(A3/WellWidth)</f>
         <v>-4</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:Q18" si="1">IF(ISODD($C3),D$2,D$2+$B$1)</f>
+        <f t="shared" ref="D3:Q18" si="4">IF(ISODD($C3),D$2,D$2+$B$1)</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-6</v>
       </c>
       <c r="F3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="G3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="H3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="I3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="J3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="K3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="L3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="M3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="N3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="O3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="P3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="Q3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -50136,2237 +52997,2237 @@
         <v>-15</v>
       </c>
       <c r="B4">
-        <f>INT(A4/WellWidth)*WellWidth</f>
+        <f t="shared" si="2"/>
         <v>-16</v>
       </c>
       <c r="C4">
-        <f>INT(A4/WellWidth)</f>
+        <f t="shared" si="3"/>
         <v>-4</v>
       </c>
       <c r="D4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-6</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="I4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="K4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="L4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="M4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="N4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="O4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="P4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f t="shared" ref="A5:A31" si="2">+A4+1</f>
+        <f t="shared" ref="A5:A31" si="5">+A4+1</f>
         <v>-14</v>
       </c>
       <c r="B5">
-        <f>INT(A5/WellWidth)*WellWidth</f>
+        <f t="shared" si="2"/>
         <v>-16</v>
       </c>
       <c r="C5">
-        <f>INT(A5/WellWidth)</f>
+        <f t="shared" si="3"/>
         <v>-4</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-6</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="I5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="K5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="L5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="M5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="N5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="O5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="P5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
+        <f t="shared" si="5"/>
+        <v>-13</v>
+      </c>
+      <c r="B6">
         <f t="shared" si="2"/>
-        <v>-13</v>
-      </c>
-      <c r="B6">
-        <f>INT(A6/WellWidth)*WellWidth</f>
         <v>-16</v>
       </c>
       <c r="C6">
-        <f>INT(A6/WellWidth)</f>
+        <f t="shared" si="3"/>
         <v>-4</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-6</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="K6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="L6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="M6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="N6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="O6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="P6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
+        <f t="shared" si="5"/>
+        <v>-12</v>
+      </c>
+      <c r="B7">
         <f t="shared" si="2"/>
         <v>-12</v>
       </c>
-      <c r="B7">
-        <f>INT(A7/WellWidth)*WellWidth</f>
-        <v>-12</v>
-      </c>
       <c r="C7">
-        <f>INT(A7/WellWidth)</f>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-8</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="O7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="P7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
+        <f t="shared" si="5"/>
+        <v>-11</v>
+      </c>
+      <c r="B8">
         <f t="shared" si="2"/>
-        <v>-11</v>
-      </c>
-      <c r="B8">
-        <f>INT(A8/WellWidth)*WellWidth</f>
         <v>-12</v>
       </c>
       <c r="C8">
-        <f>INT(A8/WellWidth)</f>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-8</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="O8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="P8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
+        <f t="shared" si="5"/>
+        <v>-10</v>
+      </c>
+      <c r="B9">
         <f t="shared" si="2"/>
-        <v>-10</v>
-      </c>
-      <c r="B9">
-        <f>INT(A9/WellWidth)*WellWidth</f>
         <v>-12</v>
       </c>
       <c r="C9">
-        <f>INT(A9/WellWidth)</f>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-8</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="O9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="P9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
+        <f t="shared" si="5"/>
+        <v>-9</v>
+      </c>
+      <c r="B10">
         <f t="shared" si="2"/>
-        <v>-9</v>
-      </c>
-      <c r="B10">
-        <f>INT(A10/WellWidth)*WellWidth</f>
         <v>-12</v>
       </c>
       <c r="C10">
-        <f>INT(A10/WellWidth)</f>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-8</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="O10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="P10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
+        <f t="shared" si="5"/>
+        <v>-8</v>
+      </c>
+      <c r="B11">
         <f t="shared" si="2"/>
         <v>-8</v>
       </c>
-      <c r="B11">
-        <f>INT(A11/WellWidth)*WellWidth</f>
-        <v>-8</v>
-      </c>
       <c r="C11">
-        <f>INT(A11/WellWidth)</f>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-6</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="K11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="L11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="M11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="N11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="O11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="P11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
+        <f t="shared" si="5"/>
+        <v>-7</v>
+      </c>
+      <c r="B12">
         <f t="shared" si="2"/>
-        <v>-7</v>
-      </c>
-      <c r="B12">
-        <f>INT(A12/WellWidth)*WellWidth</f>
         <v>-8</v>
       </c>
       <c r="C12">
-        <f>INT(A12/WellWidth)</f>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-6</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="K12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="L12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="M12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="N12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="O12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="P12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
+        <f t="shared" si="5"/>
+        <v>-6</v>
+      </c>
+      <c r="B13">
         <f t="shared" si="2"/>
+        <v>-8</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="4"/>
         <v>-6</v>
       </c>
-      <c r="B13">
-        <f>INT(A13/WellWidth)*WellWidth</f>
-        <v>-8</v>
-      </c>
-      <c r="C13">
-        <f>INT(A13/WellWidth)</f>
+      <c r="F13">
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>-6</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
+      <c r="G13">
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
+      <c r="H13">
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
+      <c r="I13">
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
       <c r="J13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="K13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="L13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="M13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="N13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="O13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="P13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+      <c r="B14">
         <f t="shared" si="2"/>
-        <v>-5</v>
-      </c>
-      <c r="B14">
-        <f>INT(A14/WellWidth)*WellWidth</f>
         <v>-8</v>
       </c>
       <c r="C14">
-        <f>INT(A14/WellWidth)</f>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-6</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="I14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="K14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="L14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="M14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="N14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="O14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="P14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+      <c r="B15">
         <f t="shared" si="2"/>
         <v>-4</v>
       </c>
-      <c r="B15">
-        <f>INT(A15/WellWidth)*WellWidth</f>
+      <c r="C15">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="4"/>
+        <v>-8</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
-      <c r="C15">
-        <f>INT(A15/WellWidth)</f>
-        <v>-1</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>-8</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
+      <c r="G15">
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
+      <c r="H15">
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
+      <c r="I15">
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
       <c r="J15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="O15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="P15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+      <c r="B16">
         <f t="shared" si="2"/>
-        <v>-3</v>
-      </c>
-      <c r="B16">
-        <f>INT(A16/WellWidth)*WellWidth</f>
         <v>-4</v>
       </c>
       <c r="C16">
-        <f>INT(A16/WellWidth)</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="D16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-8</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
       <c r="I16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="O16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="P16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+      <c r="B17">
         <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
-      <c r="B17">
-        <f>INT(A17/WellWidth)*WellWidth</f>
+      <c r="E17">
+        <f t="shared" si="4"/>
+        <v>-8</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
-      <c r="C17">
-        <f>INT(A17/WellWidth)</f>
-        <v>-1</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>-8</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
+      <c r="G17">
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="1"/>
+      <c r="H17">
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
+      <c r="I17">
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
       <c r="J17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="O17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="P17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="B18">
         <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="B18">
-        <f>INT(A18/WellWidth)*WellWidth</f>
+      <c r="D18">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="4"/>
+        <v>-8</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
-      <c r="C18">
-        <f>INT(A18/WellWidth)</f>
-        <v>-1</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
-        <v>-8</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
+      <c r="G18">
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
+      <c r="H18">
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
-      <c r="H18">
-        <f t="shared" si="1"/>
+      <c r="I18">
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
-      <c r="I18">
-        <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
       <c r="J18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="O18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="P18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="B19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="B19">
-        <f>INT(A19/WellWidth)*WellWidth</f>
+      <c r="C19">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="C19">
-        <f>INT(A19/WellWidth)</f>
+      <c r="D19">
+        <f t="shared" ref="D19:Q35" si="6">IF(ISODD($C19),D$2,D$2+$B$1)</f>
         <v>0</v>
       </c>
-      <c r="D19">
-        <f t="shared" ref="D19:Q35" si="3">IF(ISODD($C19),D$2,D$2+$B$1)</f>
-        <v>0</v>
-      </c>
       <c r="E19">
-        <f t="shared" ref="E19:Q34" si="4">IF(ISODD($C19),E$2,E$2+$B$1)</f>
+        <f t="shared" ref="E19:Q34" si="7">IF(ISODD($C19),E$2,E$2+$B$1)</f>
         <v>-6</v>
       </c>
       <c r="F19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="G19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="H19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="I19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="J19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="K19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="L19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="M19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="N19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="O19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="P19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B20">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <f>INT(A20/WellWidth)*WellWidth</f>
         <v>0</v>
       </c>
       <c r="C20">
-        <f>INT(A20/WellWidth)</f>
-        <v>0</v>
-      </c>
-      <c r="D20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="D20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="E20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-6</v>
       </c>
       <c r="F20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="G20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="H20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="I20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="J20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="K20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="L20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="M20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="N20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="O20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="P20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B21">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="B21">
-        <f>INT(A21/WellWidth)*WellWidth</f>
         <v>0</v>
       </c>
       <c r="C21">
-        <f>INT(A21/WellWidth)</f>
-        <v>0</v>
-      </c>
-      <c r="D21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="D21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="E21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-6</v>
       </c>
       <c r="F21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="G21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="H21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="I21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="J21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="K21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="L21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="M21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="N21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="O21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="P21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="B22">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="B22">
-        <f>INT(A22/WellWidth)*WellWidth</f>
         <v>0</v>
       </c>
       <c r="C22">
-        <f>INT(A22/WellWidth)</f>
-        <v>0</v>
-      </c>
-      <c r="D22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="D22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="E22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-6</v>
       </c>
       <c r="F22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="G22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="H22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="I22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="J22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="K22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="L22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="M22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="N22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="O22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="P22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B23">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B23">
-        <f>INT(A23/WellWidth)*WellWidth</f>
+      <c r="C23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="7"/>
+        <v>-8</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="7"/>
+        <v>-4</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="7"/>
+        <v>-4</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="7"/>
+        <v>-4</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="7"/>
+        <v>-4</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="C23">
-        <f>INT(A23/WellWidth)</f>
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="3"/>
-        <v>-2</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="4"/>
-        <v>-8</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="4"/>
-        <v>-4</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="4"/>
-        <v>-4</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="4"/>
-        <v>-4</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="4"/>
-        <v>-4</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="4"/>
+      <c r="O23">
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="O23">
-        <f t="shared" si="4"/>
+      <c r="P23">
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="P23">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
       <c r="Q23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="B24">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="B24">
-        <f>INT(A24/WellWidth)*WellWidth</f>
         <v>4</v>
       </c>
       <c r="C24">
-        <f>INT(A24/WellWidth)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
       <c r="E24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-8</v>
       </c>
       <c r="F24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
       <c r="G24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
       <c r="H24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
       <c r="I24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
       <c r="J24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="O24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="P24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="B25">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="B25">
-        <f>INT(A25/WellWidth)*WellWidth</f>
         <v>4</v>
       </c>
       <c r="C25">
-        <f>INT(A25/WellWidth)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
       <c r="E25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-8</v>
       </c>
       <c r="F25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
       <c r="G25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
       <c r="H25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
       <c r="I25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
       <c r="J25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="O25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="P25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="B26">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="B26">
-        <f>INT(A26/WellWidth)*WellWidth</f>
         <v>4</v>
       </c>
       <c r="C26">
-        <f>INT(A26/WellWidth)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
       <c r="E26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-8</v>
       </c>
       <c r="F26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
       <c r="G26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
       <c r="H26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
       <c r="I26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
       <c r="J26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="O26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="P26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="B27">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B27">
-        <f>INT(A27/WellWidth)*WellWidth</f>
-        <v>8</v>
-      </c>
       <c r="C27">
-        <f>INT(A27/WellWidth)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-6</v>
       </c>
       <c r="F27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="G27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="H27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="I27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="J27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="K27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="L27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="M27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="N27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="O27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="P27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="B28">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="B28">
-        <f>INT(A28/WellWidth)*WellWidth</f>
         <v>8</v>
       </c>
       <c r="C28">
-        <f>INT(A28/WellWidth)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-6</v>
       </c>
       <c r="F28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="G28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="H28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="I28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="J28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="K28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="L28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="M28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="N28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="O28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="P28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B29">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="B29">
-        <f>INT(A29/WellWidth)*WellWidth</f>
         <v>8</v>
       </c>
       <c r="C29">
-        <f>INT(A29/WellWidth)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-6</v>
       </c>
       <c r="F29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="G29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="H29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="I29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="J29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="K29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="L29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="M29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="N29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="O29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="P29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="B30">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="B30">
-        <f>INT(A30/WellWidth)*WellWidth</f>
         <v>8</v>
       </c>
       <c r="C30">
-        <f>INT(A30/WellWidth)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-6</v>
       </c>
       <c r="F30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="G30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="H30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="I30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="J30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="K30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="L30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="M30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="N30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="O30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="P30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="B31">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="B31">
-        <f>INT(A31/WellWidth)*WellWidth</f>
-        <v>12</v>
-      </c>
       <c r="C31">
-        <f>INT(A31/WellWidth)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="D31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
       <c r="E31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-8</v>
       </c>
       <c r="F31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
       <c r="G31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
       <c r="H31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
       <c r="I31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
       <c r="J31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="O31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="P31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32">
-        <f t="shared" ref="A32:A35" si="5">+A31+1</f>
+        <f t="shared" ref="A32:A35" si="8">+A31+1</f>
         <v>13</v>
       </c>
       <c r="B32">
-        <f>INT(A32/WellWidth)*WellWidth</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="C32">
-        <f>INT(A32/WellWidth)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="D32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
       <c r="E32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-8</v>
       </c>
       <c r="F32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
       <c r="G32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
       <c r="H32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
       <c r="I32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
       <c r="J32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="O32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="P32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="B33">
-        <f>INT(A33/WellWidth)*WellWidth</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="C33">
-        <f>INT(A33/WellWidth)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="D33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
       <c r="E33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-8</v>
       </c>
       <c r="F33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
       <c r="G33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
       <c r="H33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
       <c r="I33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
       <c r="J33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="O33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="P33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="B34">
-        <f>INT(A34/WellWidth)*WellWidth</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="C34">
-        <f>INT(A34/WellWidth)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="D34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
       <c r="E34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-8</v>
       </c>
       <c r="F34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
       <c r="G34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
       <c r="H34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
       <c r="I34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
       <c r="J34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="O34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="P34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="B35">
-        <f>INT(A35/WellWidth)*WellWidth</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="C35">
-        <f>INT(A35/WellWidth)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-6</v>
       </c>
       <c r="F35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
       <c r="G35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
       <c r="H35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
       <c r="I35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
       <c r="J35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="K35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="L35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="M35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="N35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="O35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="P35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>

--- a/notes/WellThoughts.xlsx
+++ b/notes/WellThoughts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="48" windowWidth="16260" windowHeight="9000" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="48" windowWidth="16260" windowHeight="9000" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Oddz" sheetId="1" r:id="rId1"/>
@@ -17,19 +17,22 @@
     <sheet name="Calculations" sheetId="7" r:id="rId8"/>
     <sheet name="Hex step" sheetId="9" r:id="rId9"/>
     <sheet name="VolcanoShape" sheetId="10" r:id="rId10"/>
+    <sheet name="HexCalc2" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="HalfPi">VolcanoShape!$F$2</definedName>
     <definedName name="Steps">VolcanoShape!$G$1</definedName>
     <definedName name="TwoPi">VolcanoShape!$F$1</definedName>
     <definedName name="WellWidth">'Hex step'!$A$1</definedName>
+    <definedName name="WellWidth2">HexCalc2!$B$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="66">
   <si>
     <t>w-1</t>
   </si>
@@ -120,18 +123,132 @@
   <si>
     <t>(i+1)* 16</t>
   </si>
+  <si>
+    <t>ChunkLocation comes in</t>
+  </si>
+  <si>
+    <t>Find the Chunk's Well Origin</t>
+  </si>
+  <si>
+    <t>Calculate the well origin location</t>
+  </si>
+  <si>
+    <t>If there is a well already defined</t>
+  </si>
+  <si>
+    <t>return it</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>create it</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>10:40:15 [INFO] ChunkX = -8 Zs =  (-8)-8 (-8)-7 (-8)-6 (-8)-5 (-4)-4 (-4)-3 (-4)-2 (-4)-1 (0)0 (0)1 (0)2 (0)3 (4)4 (4)5 (4)6 (4)7</t>
+  </si>
+  <si>
+    <t>10:40:15 [INFO] ChunkX = -7 Zs =  (-8)-8 (-8)-7 (-8)-6 (-8)-5 (-4)-4 (-4)-3 (-4)-2 (-4)-1 (0)0 (0)1 (0)2 (0)3 (4)4 (4)5 (4)6 (4)7</t>
+  </si>
+  <si>
+    <t>10:40:15 [INFO] ChunkX = -6 Zs =  (-8)-8 (-8)-7 (-8)-6 (-8)-5 (-4)-4 (-4)-3 (-4)-2 (-4)-1 (0)0 (0)1 (0)2 (0)3 (4)4 (4)5 (4)6 (4)7</t>
+  </si>
+  <si>
+    <t>10:40:15 [INFO] ChunkX = -5 Zs =  (-8)-8 (-8)-7 (-8)-6 (-8)-5 (-4)-4 (-4)-3 (-4)-2 (-4)-1 (0)0 (0)1 (0)2 (0)3 (4)4 (4)5 (4)6 (4)7</t>
+  </si>
+  <si>
+    <t>10:40:15 [INFO] ChunkX = -4 Zs =  (-6)-8 (-6)-7 (-6)-6 (-6)-5 (-2)-4 (-2)-3 (-2)-2 (-2)-1 (2)0 (2)1 (2)2 (2)3 (6)4 (6)5 (6)6 (6)7</t>
+  </si>
+  <si>
+    <t>10:40:15 [INFO] ChunkX = -3 Zs =  (-6)-8 (-6)-7 (-6)-6 (-6)-5 (-2)-4 (-2)-3 (-2)-2 (-2)-1 (2)0 (2)1 (2)2 (2)3 (6)4 (6)5 (6)6 (6)7</t>
+  </si>
+  <si>
+    <t>10:40:15 [INFO] ChunkX = -2 Zs =  (-6)-8 (-6)-7 (-6)-6 (-6)-5 (-2)-4 (-2)-3 (-2)-2 (-2)-1 (2)0 (2)1 (2)2 (2)3 (6)4 (6)5 (6)6 (6)7</t>
+  </si>
+  <si>
+    <t>10:40:15 [INFO] ChunkX = -1 Zs =  (-6)-8 (-6)-7 (-6)-6 (-6)-5 (-2)-4 (-2)-3 (-2)-2 (-2)-1 (2)0 (2)1 (2)2 (2)3 (6)4 (6)5 (6)6 (6)7</t>
+  </si>
+  <si>
+    <t>10:40:15 [INFO] ChunkX = 0 Zs =   (-8)-8 (-8)-7 (-8)-6 (-8)-5 (-4)-4 (-4)-3 (-4)-2 (-4)-1 (0)0 (0)1 (0)2 (0)3 (4)4 (4)5 (4)6 (4)7</t>
+  </si>
+  <si>
+    <t>10:40:15 [INFO] ChunkX = 1 Zs =   (-8)-8 (-8)-7 (-8)-6 (-8)-5 (-4)-4 (-4)-3 (-4)-2 (-4)-1 (0)0 (0)1 (0)2 (0)3 (4)4 (4)5 (4)6 (4)7</t>
+  </si>
+  <si>
+    <t>10:40:15 [INFO] ChunkX = 2 Zs =   (-8)-8 (-8)-7 (-8)-6 (-8)-5 (-4)-4 (-4)-3 (-4)-2 (-4)-1 (0)0 (0)1 (0)2 (0)3 (4)4 (4)5 (4)6 (4)7</t>
+  </si>
+  <si>
+    <t>10:40:15 [INFO] ChunkX = 3 Zs =   (-8)-8 (-8)-7 (-8)-6 (-8)-5 (-4)-4 (-4)-3 (-4)-2 (-4)-1 (0)0 (0)1 (0)2 (0)3 (4)4 (4)5 (4)6 (4)7</t>
+  </si>
+  <si>
+    <t>10:40:15 [INFO] ChunkX = 4 Zs =   (-6)-8 (-6)-7 (-6)-6 (-6)-5 (-2)-4 (-2)-3 (-2)-2 (-2)-1 (2)0 (2)1 (2)2 (2)3 (6)4 (6)5 (6)6 (6)7</t>
+  </si>
+  <si>
+    <t>10:40:15 [INFO] ChunkX = 5 Zs =   (-6)-8 (-6)-7 (-6)-6 (-6)-5 (-2)-4 (-2)-3 (-2)-2 (-2)-1 (2)0 (2)1 (2)2 (2)3 (6)4 (6)5 (6)6 (6)7</t>
+  </si>
+  <si>
+    <t>10:40:15 [INFO] ChunkX = 6 Zs =   (-6)-8 (-6)-7 (-6)-6 (-6)-5 (-2)-4 (-2)-3 (-2)-2 (-2)-1 (2)0 (2)1 (2)2 (2)3 (6)4 (6)5 (6)6 (6)7</t>
+  </si>
+  <si>
+    <t>10:40:15 [INFO] ChunkX = 7 Zs =   (-6)-8 (-6)-7 (-6)-6 (-6)-5 (-2)-4 (-2)-3 (-2)-2 (-2)-1 (2)0 (2)1 (2)2 (2)3 (6)4 (6)5 (6)6 (6)7</t>
+  </si>
+  <si>
+    <t>11:00:03 [INFO] WellX = -8 Zs =  -8/-8(N-W-) -8/-7(N---) -8/-6(N---) -8/-5(N--E) -4/-4(N-W-) -4/-3(N---) -4/-2(N---) -4/-1(N--E) 0/0(N-W-) 0/1(N---) 0/2(N---) 0/3(N--E) 4/4(N-W-) 4/5(N---) 4/6(N---) 4/7(N--E)</t>
+  </si>
+  <si>
+    <t>11:00:03 [INFO] WellX = -8 Zs =  -8/-8(--W-) -8/-7(----) -8/-6(----) -8/-5(---E) -4/-4(--W-) -4/-3(----) -4/-2(----) -4/-1(---E) 0/0(--W-) 0/1(----) 0/2(----) 0/3(---E) 4/4(--W-) 4/5(----) 4/6(----) 4/7(---E)</t>
+  </si>
+  <si>
+    <t>11:00:03 [INFO] WellX = -8 Zs =  -8/-8(-SW-) -8/-7(-S--) -8/-6(-S--) -8/-5(-S-E) -4/-4(-SW-) -4/-3(-S--) -4/-2(-S--) -4/-1(-S-E) 0/0(-SW-) 0/1(-S--) 0/2(-S--) 0/3(-S-E) 4/4(-SW-) 4/5(-S--) 4/6(-S--) 4/7(-S-E)</t>
+  </si>
+  <si>
+    <t>11:00:03 [INFO] WellX = -4 Zs =  -6/-8(N---) -6/-7(N---) -6/-6(N-W-) -6/-5(N---) -2/-4(N---) -2/-3(N---) -2/-2(N-W-) -2/-1(N---) 2/0(N---) 2/1(N---) 2/2(N-W-) 2/3(N---) 6/4(N---) 6/5(N---) 6/6(N-W-) 6/7(N---)</t>
+  </si>
+  <si>
+    <t>11:00:03 [INFO] WellX = -4 Zs =  -6/-8(----) -6/-7(----) -6/-6(--W-) -6/-5(----) -2/-4(----) -2/-3(----) -2/-2(--W-) -2/-1(----) 2/0(----) 2/1(----) 2/2(--W-) 2/3(----) 6/4(----) 6/5(----) 6/6(--W-) 6/7(----)</t>
+  </si>
+  <si>
+    <t>11:00:03 [INFO] WellX = -4 Zs =  -6/-8(-S--) -6/-7(-S--) -6/-6(-SW-) -6/-5(-S--) -2/-4(-S--) -2/-3(-S--) -2/-2(-SW-) -2/-1(-S--) 2/0(-S--) 2/1(-S--) 2/2(-SW-) 2/3(-S--) 6/4(-S--) 6/5(-S--) 6/6(-SW-) 6/7(-S--)</t>
+  </si>
+  <si>
+    <t>11:00:03 [INFO] WellX = 0 Zs =  -8/-8(N-W-) -8/-7(N---) -8/-6(N---) -8/-5(N--E) -4/-4(N-W-) -4/-3(N---) -4/-2(N---) -4/-1(N--E) 0/0(N-W-) 0/1(N---) 0/2(N---) 0/3(N--E) 4/4(N-W-) 4/5(N---) 4/6(N---) 4/7(N--E)</t>
+  </si>
+  <si>
+    <t>11:00:03 [INFO] WellX = 0 Zs =  -8/-8(--W-) -8/-7(----) -8/-6(----) -8/-5(---E) -4/-4(--W-) -4/-3(----) -4/-2(----) -4/-1(---E) 0/0(--W-) 0/1(----) 0/2(----) 0/3(---E) 4/4(--W-) 4/5(----) 4/6(----) 4/7(---E)</t>
+  </si>
+  <si>
+    <t>11:00:03 [INFO] WellX = 0 Zs =  -8/-8(-SW-) -8/-7(-S--) -8/-6(-S--) -8/-5(-S-E) -4/-4(-SW-) -4/-3(-S--) -4/-2(-S--) -4/-1(-S-E) 0/0(-SW-) 0/1(-S--) 0/2(-S--) 0/3(-S-E) 4/4(-SW-) 4/5(-S--) 4/6(-S--) 4/7(-S-E)</t>
+  </si>
+  <si>
+    <t>11:00:03 [INFO] WellX = 4 Zs =  -6/-8(N---) -6/-7(N---) -6/-6(N-W-) -6/-5(N---) -2/-4(N---) -2/-3(N---) -2/-2(N-W-) -2/-1(N---) 2/0(N---) 2/1(N---) 2/2(N-W-) 2/3(N---) 6/4(N---) 6/5(N---) 6/6(N-W-) 6/7(N---)</t>
+  </si>
+  <si>
+    <t>11:00:03 [INFO] WellX = 4 Zs =  -6/-8(----) -6/-7(----) -6/-6(--W-) -6/-5(----) -2/-4(----) -2/-3(----) -2/-2(--W-) -2/-1(----) 2/0(----) 2/1(----) 2/2(--W-) 2/3(----) 6/4(----) 6/5(----) 6/6(--W-) 6/7(----)</t>
+  </si>
+  <si>
+    <t>11:00:03 [INFO] WellX = 4 Zs =  -6/-8(-S--) -6/-7(-S--) -6/-6(-SW-) -6/-5(-S--) -2/-4(-S--) -2/-3(-S--) -2/-2(-SW-) -2/-1(-S--) 2/0(-S--) 2/1(-S--) 2/2(-SW-) 2/3(-S--) 6/4(-S--) 6/5(-S--) 6/6(-SW-) 6/7(-S--)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="8">
@@ -592,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
@@ -781,6 +898,40 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" textRotation="180" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1227,11 +1378,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="186800384"/>
-        <c:axId val="186830848"/>
+        <c:axId val="266967296"/>
+        <c:axId val="266969088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="186800384"/>
+        <c:axId val="266967296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1240,7 +1391,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186830848"/>
+        <c:crossAx val="266969088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1248,7 +1399,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="186830848"/>
+        <c:axId val="266969088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1259,7 +1410,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186800384"/>
+        <c:crossAx val="266967296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2170,7 +2321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -4500,6 +4651,1233 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f>-WellWidth2*2</f>
+        <v>-8</v>
+      </c>
+      <c r="B5">
+        <v>-8</v>
+      </c>
+      <c r="C5">
+        <v>-6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f>+A5+1</f>
+        <v>-7</v>
+      </c>
+      <c r="B6">
+        <v>-8</v>
+      </c>
+      <c r="C6">
+        <v>-6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" ref="A7:A24" si="0">+A6+1</f>
+        <v>-6</v>
+      </c>
+      <c r="B7">
+        <v>-8</v>
+      </c>
+      <c r="C7">
+        <v>-6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="B8">
+        <v>-8</v>
+      </c>
+      <c r="C8">
+        <v>-6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="B9">
+        <v>-4</v>
+      </c>
+      <c r="C9">
+        <v>-2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="B10">
+        <v>-4</v>
+      </c>
+      <c r="C10">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="B11">
+        <v>-4</v>
+      </c>
+      <c r="C11">
+        <v>-2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="B12">
+        <v>-4</v>
+      </c>
+      <c r="C12">
+        <v>-2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="H17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="H18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="H19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E21" s="131" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E22" s="131" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E23" s="131" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E24" s="131" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E25" s="131" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E26" s="131" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E27" s="131" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E28" s="131" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E29" s="131" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E30" s="131" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E31" s="131" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E32" s="131" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E33" s="131" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E34" s="131" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E35" s="131" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E36" s="131" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:W21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="19" width="2.77734375" style="135"/>
+    <col min="20" max="21" width="2.77734375" style="135" customWidth="1"/>
+    <col min="22" max="16384" width="2.77734375" style="135"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B2" s="132"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="132"/>
+      <c r="S2" s="133"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="134"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B3" s="136"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="137"/>
+      <c r="P3" s="137"/>
+      <c r="Q3" s="138"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="137"/>
+      <c r="T3" s="137"/>
+      <c r="U3" s="138"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B4" s="136"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="138"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="137"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="138"/>
+      <c r="R4" s="136"/>
+      <c r="S4" s="137"/>
+      <c r="T4" s="137"/>
+      <c r="U4" s="138"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B5" s="139"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="139"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="141"/>
+      <c r="N5" s="139"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="141"/>
+      <c r="R5" s="139"/>
+      <c r="S5" s="140"/>
+      <c r="T5" s="140"/>
+      <c r="U5" s="141"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="D6" s="132"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="132"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="134"/>
+      <c r="P6" s="132"/>
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="134"/>
+      <c r="T6" s="132"/>
+      <c r="U6" s="133"/>
+      <c r="V6" s="133"/>
+      <c r="W6" s="134"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="D7" s="136">
+        <f t="shared" ref="D7" si="0">D9-D8</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="137">
+        <f t="shared" ref="E7" si="1">E9-E8</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="137">
+        <f t="shared" ref="F7" si="2">F9-F8</f>
+        <v>2</v>
+      </c>
+      <c r="G7" s="138">
+        <f t="shared" ref="G7" si="3">G9-G8</f>
+        <v>3</v>
+      </c>
+      <c r="H7" s="136">
+        <f t="shared" ref="H7" si="4">H9-H8</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="137">
+        <f t="shared" ref="I7" si="5">I9-I8</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="137">
+        <f t="shared" ref="J7" si="6">J9-J8</f>
+        <v>2</v>
+      </c>
+      <c r="K7" s="138">
+        <f t="shared" ref="K7" si="7">K9-K8</f>
+        <v>3</v>
+      </c>
+      <c r="L7" s="136">
+        <f t="shared" ref="L7" si="8">L9-L8</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="137">
+        <f t="shared" ref="M7" si="9">M9-M8</f>
+        <v>1</v>
+      </c>
+      <c r="N7" s="137">
+        <f t="shared" ref="N7" si="10">N9-N8</f>
+        <v>2</v>
+      </c>
+      <c r="O7" s="138">
+        <f t="shared" ref="O7" si="11">O9-O8</f>
+        <v>3</v>
+      </c>
+      <c r="P7" s="136">
+        <f t="shared" ref="P7" si="12">P9-P8</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="137">
+        <f t="shared" ref="Q7" si="13">Q9-Q8</f>
+        <v>1</v>
+      </c>
+      <c r="R7" s="137">
+        <f t="shared" ref="R7" si="14">R9-R8</f>
+        <v>2</v>
+      </c>
+      <c r="S7" s="138">
+        <f t="shared" ref="S7" si="15">S9-S8</f>
+        <v>3</v>
+      </c>
+      <c r="T7" s="136">
+        <f t="shared" ref="T7" si="16">T9-T8</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="137">
+        <f t="shared" ref="U7" si="17">U9-U8</f>
+        <v>1</v>
+      </c>
+      <c r="V7" s="137">
+        <f t="shared" ref="V7" si="18">V9-V8</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="138">
+        <f t="shared" ref="W7" si="19">W9-W8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="D8" s="136">
+        <v>-6</v>
+      </c>
+      <c r="E8" s="137">
+        <v>-6</v>
+      </c>
+      <c r="F8" s="137">
+        <v>-6</v>
+      </c>
+      <c r="G8" s="138">
+        <v>-6</v>
+      </c>
+      <c r="H8" s="136">
+        <v>-2</v>
+      </c>
+      <c r="I8" s="137">
+        <v>-2</v>
+      </c>
+      <c r="J8" s="137">
+        <v>-2</v>
+      </c>
+      <c r="K8" s="138">
+        <v>-2</v>
+      </c>
+      <c r="L8" s="136">
+        <v>2</v>
+      </c>
+      <c r="M8" s="142">
+        <v>2</v>
+      </c>
+      <c r="N8" s="142">
+        <v>2</v>
+      </c>
+      <c r="O8" s="138">
+        <v>2</v>
+      </c>
+      <c r="P8" s="136">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="142">
+        <v>6</v>
+      </c>
+      <c r="R8" s="142">
+        <v>6</v>
+      </c>
+      <c r="S8" s="138">
+        <v>6</v>
+      </c>
+      <c r="T8" s="136">
+        <v>10</v>
+      </c>
+      <c r="U8" s="142">
+        <v>10</v>
+      </c>
+      <c r="V8" s="137"/>
+      <c r="W8" s="138"/>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B9" s="135">
+        <f t="shared" ref="B9:H9" si="20">C9-1</f>
+        <v>-8</v>
+      </c>
+      <c r="C9" s="135">
+        <f t="shared" si="20"/>
+        <v>-7</v>
+      </c>
+      <c r="D9" s="139">
+        <f t="shared" si="20"/>
+        <v>-6</v>
+      </c>
+      <c r="E9" s="140">
+        <f t="shared" si="20"/>
+        <v>-5</v>
+      </c>
+      <c r="F9" s="140">
+        <f t="shared" si="20"/>
+        <v>-4</v>
+      </c>
+      <c r="G9" s="141">
+        <f t="shared" si="20"/>
+        <v>-3</v>
+      </c>
+      <c r="H9" s="139">
+        <f t="shared" si="20"/>
+        <v>-2</v>
+      </c>
+      <c r="I9" s="140">
+        <f>J9-1</f>
+        <v>-1</v>
+      </c>
+      <c r="J9" s="140">
+        <v>0</v>
+      </c>
+      <c r="K9" s="141">
+        <f>J9+1</f>
+        <v>1</v>
+      </c>
+      <c r="L9" s="139">
+        <f t="shared" ref="L9:U9" si="21">K9+1</f>
+        <v>2</v>
+      </c>
+      <c r="M9" s="140">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="N9" s="140">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="O9" s="141">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="P9" s="139">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="Q9" s="140">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="R9" s="140">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="S9" s="141">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="T9" s="139">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="U9" s="140">
+        <f t="shared" si="21"/>
+        <v>11</v>
+      </c>
+      <c r="V9" s="140"/>
+      <c r="W9" s="141"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B10" s="132"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="132"/>
+      <c r="K10" s="133"/>
+      <c r="L10" s="133"/>
+      <c r="M10" s="134"/>
+      <c r="N10" s="132"/>
+      <c r="O10" s="133"/>
+      <c r="P10" s="133"/>
+      <c r="Q10" s="134"/>
+      <c r="R10" s="132"/>
+      <c r="S10" s="133"/>
+      <c r="T10" s="133"/>
+      <c r="U10" s="134"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B11" s="136">
+        <f t="shared" ref="B11" si="22">B13-B12</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="137">
+        <f t="shared" ref="C11" si="23">C13-C12</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="137">
+        <f t="shared" ref="D11" si="24">D13-D12</f>
+        <v>2</v>
+      </c>
+      <c r="E11" s="138">
+        <f t="shared" ref="E11:F11" si="25">E13-E12</f>
+        <v>3</v>
+      </c>
+      <c r="F11" s="136">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="137">
+        <f t="shared" ref="G11" si="26">G13-G12</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="137">
+        <f t="shared" ref="H11" si="27">H13-H12</f>
+        <v>2</v>
+      </c>
+      <c r="I11" s="138">
+        <f t="shared" ref="I11" si="28">I13-I12</f>
+        <v>3</v>
+      </c>
+      <c r="J11" s="136">
+        <f>J13-J12</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="137">
+        <f t="shared" ref="K11:N11" si="29">K13-K12</f>
+        <v>1</v>
+      </c>
+      <c r="L11" s="137">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="M11" s="138">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+      <c r="N11" s="136">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="137">
+        <f t="shared" ref="O11" si="30">O13-O12</f>
+        <v>1</v>
+      </c>
+      <c r="P11" s="137">
+        <f t="shared" ref="P11" si="31">P13-P12</f>
+        <v>2</v>
+      </c>
+      <c r="Q11" s="138">
+        <f t="shared" ref="Q11:R11" si="32">Q13-Q12</f>
+        <v>3</v>
+      </c>
+      <c r="R11" s="136">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="137">
+        <f t="shared" ref="S11" si="33">S13-S12</f>
+        <v>1</v>
+      </c>
+      <c r="T11" s="137">
+        <f t="shared" ref="T11" si="34">T13-T12</f>
+        <v>2</v>
+      </c>
+      <c r="U11" s="138">
+        <f t="shared" ref="U11" si="35">U13-U12</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B12" s="136">
+        <v>-8</v>
+      </c>
+      <c r="C12" s="137">
+        <v>-8</v>
+      </c>
+      <c r="D12" s="137">
+        <v>-8</v>
+      </c>
+      <c r="E12" s="138">
+        <v>-8</v>
+      </c>
+      <c r="F12" s="136">
+        <v>-4</v>
+      </c>
+      <c r="G12" s="137">
+        <v>-4</v>
+      </c>
+      <c r="H12" s="137">
+        <v>-4</v>
+      </c>
+      <c r="I12" s="138">
+        <v>-4</v>
+      </c>
+      <c r="J12" s="136">
+        <v>0</v>
+      </c>
+      <c r="K12" s="137">
+        <v>0</v>
+      </c>
+      <c r="L12" s="137">
+        <v>0</v>
+      </c>
+      <c r="M12" s="138">
+        <v>0</v>
+      </c>
+      <c r="N12" s="136">
+        <v>4</v>
+      </c>
+      <c r="O12" s="142">
+        <v>4</v>
+      </c>
+      <c r="P12" s="142">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="138">
+        <v>4</v>
+      </c>
+      <c r="R12" s="136">
+        <v>8</v>
+      </c>
+      <c r="S12" s="142">
+        <v>8</v>
+      </c>
+      <c r="T12" s="142">
+        <v>8</v>
+      </c>
+      <c r="U12" s="138">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B13" s="139">
+        <f t="shared" ref="B13:H13" si="36">C13-1</f>
+        <v>-8</v>
+      </c>
+      <c r="C13" s="140">
+        <f t="shared" si="36"/>
+        <v>-7</v>
+      </c>
+      <c r="D13" s="140">
+        <f t="shared" si="36"/>
+        <v>-6</v>
+      </c>
+      <c r="E13" s="141">
+        <f t="shared" si="36"/>
+        <v>-5</v>
+      </c>
+      <c r="F13" s="139">
+        <f t="shared" si="36"/>
+        <v>-4</v>
+      </c>
+      <c r="G13" s="140">
+        <f t="shared" si="36"/>
+        <v>-3</v>
+      </c>
+      <c r="H13" s="140">
+        <f t="shared" si="36"/>
+        <v>-2</v>
+      </c>
+      <c r="I13" s="141">
+        <f>J13-1</f>
+        <v>-1</v>
+      </c>
+      <c r="J13" s="139">
+        <v>0</v>
+      </c>
+      <c r="K13" s="140">
+        <f>J13+1</f>
+        <v>1</v>
+      </c>
+      <c r="L13" s="140">
+        <f t="shared" ref="L13:U13" si="37">K13+1</f>
+        <v>2</v>
+      </c>
+      <c r="M13" s="141">
+        <f t="shared" si="37"/>
+        <v>3</v>
+      </c>
+      <c r="N13" s="139">
+        <f t="shared" si="37"/>
+        <v>4</v>
+      </c>
+      <c r="O13" s="140">
+        <f t="shared" si="37"/>
+        <v>5</v>
+      </c>
+      <c r="P13" s="140">
+        <f t="shared" si="37"/>
+        <v>6</v>
+      </c>
+      <c r="Q13" s="141">
+        <f t="shared" si="37"/>
+        <v>7</v>
+      </c>
+      <c r="R13" s="139">
+        <f t="shared" si="37"/>
+        <v>8</v>
+      </c>
+      <c r="S13" s="140">
+        <f t="shared" si="37"/>
+        <v>9</v>
+      </c>
+      <c r="T13" s="140">
+        <f t="shared" si="37"/>
+        <v>10</v>
+      </c>
+      <c r="U13" s="141">
+        <f t="shared" si="37"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="D14" s="132"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="134"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="133"/>
+      <c r="N14" s="133"/>
+      <c r="O14" s="134"/>
+      <c r="P14" s="132"/>
+      <c r="Q14" s="133"/>
+      <c r="R14" s="133"/>
+      <c r="S14" s="134"/>
+      <c r="T14" s="132"/>
+      <c r="U14" s="133"/>
+      <c r="V14" s="133"/>
+      <c r="W14" s="134"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="D15" s="136"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="136"/>
+      <c r="M15" s="137"/>
+      <c r="N15" s="137"/>
+      <c r="O15" s="138"/>
+      <c r="P15" s="136"/>
+      <c r="Q15" s="137"/>
+      <c r="R15" s="137"/>
+      <c r="S15" s="138"/>
+      <c r="T15" s="136"/>
+      <c r="U15" s="137"/>
+      <c r="V15" s="137"/>
+      <c r="W15" s="138"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="D16" s="136"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="138"/>
+      <c r="L16" s="136"/>
+      <c r="M16" s="137"/>
+      <c r="N16" s="137"/>
+      <c r="O16" s="138"/>
+      <c r="P16" s="136"/>
+      <c r="Q16" s="137"/>
+      <c r="R16" s="137"/>
+      <c r="S16" s="138"/>
+      <c r="T16" s="136"/>
+      <c r="U16" s="137"/>
+      <c r="V16" s="137"/>
+      <c r="W16" s="138"/>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B17" s="135">
+        <f t="shared" ref="B17:H17" si="38">C17-1</f>
+        <v>-8</v>
+      </c>
+      <c r="C17" s="135">
+        <f t="shared" si="38"/>
+        <v>-7</v>
+      </c>
+      <c r="D17" s="139">
+        <f t="shared" si="38"/>
+        <v>-6</v>
+      </c>
+      <c r="E17" s="140">
+        <f t="shared" si="38"/>
+        <v>-5</v>
+      </c>
+      <c r="F17" s="140">
+        <f t="shared" si="38"/>
+        <v>-4</v>
+      </c>
+      <c r="G17" s="141">
+        <f t="shared" si="38"/>
+        <v>-3</v>
+      </c>
+      <c r="H17" s="139">
+        <f t="shared" si="38"/>
+        <v>-2</v>
+      </c>
+      <c r="I17" s="140">
+        <f>J17-1</f>
+        <v>-1</v>
+      </c>
+      <c r="J17" s="140">
+        <v>0</v>
+      </c>
+      <c r="K17" s="141">
+        <f>J17+1</f>
+        <v>1</v>
+      </c>
+      <c r="L17" s="139">
+        <f t="shared" ref="L17:U17" si="39">K17+1</f>
+        <v>2</v>
+      </c>
+      <c r="M17" s="140">
+        <f t="shared" si="39"/>
+        <v>3</v>
+      </c>
+      <c r="N17" s="140">
+        <f t="shared" si="39"/>
+        <v>4</v>
+      </c>
+      <c r="O17" s="141">
+        <f t="shared" si="39"/>
+        <v>5</v>
+      </c>
+      <c r="P17" s="139">
+        <f t="shared" si="39"/>
+        <v>6</v>
+      </c>
+      <c r="Q17" s="140">
+        <f t="shared" si="39"/>
+        <v>7</v>
+      </c>
+      <c r="R17" s="140">
+        <f t="shared" si="39"/>
+        <v>8</v>
+      </c>
+      <c r="S17" s="141">
+        <f t="shared" si="39"/>
+        <v>9</v>
+      </c>
+      <c r="T17" s="139">
+        <f t="shared" si="39"/>
+        <v>10</v>
+      </c>
+      <c r="U17" s="140">
+        <f t="shared" si="39"/>
+        <v>11</v>
+      </c>
+      <c r="V17" s="140"/>
+      <c r="W17" s="141"/>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B18" s="132"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="132"/>
+      <c r="K18" s="133"/>
+      <c r="L18" s="133"/>
+      <c r="M18" s="134"/>
+      <c r="N18" s="132"/>
+      <c r="O18" s="133"/>
+      <c r="P18" s="133"/>
+      <c r="Q18" s="134"/>
+      <c r="R18" s="132"/>
+      <c r="S18" s="133"/>
+      <c r="T18" s="133"/>
+      <c r="U18" s="134"/>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B19" s="136"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="136"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="137"/>
+      <c r="M19" s="138"/>
+      <c r="N19" s="136"/>
+      <c r="O19" s="137"/>
+      <c r="P19" s="137"/>
+      <c r="Q19" s="138"/>
+      <c r="R19" s="136"/>
+      <c r="S19" s="137"/>
+      <c r="T19" s="137"/>
+      <c r="U19" s="138"/>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B20" s="136"/>
+      <c r="C20" s="137"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="137"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="136"/>
+      <c r="K20" s="137"/>
+      <c r="L20" s="137"/>
+      <c r="M20" s="138"/>
+      <c r="N20" s="136"/>
+      <c r="O20" s="137"/>
+      <c r="P20" s="137"/>
+      <c r="Q20" s="138"/>
+      <c r="R20" s="136"/>
+      <c r="S20" s="137"/>
+      <c r="T20" s="137"/>
+      <c r="U20" s="138"/>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B21" s="139"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="141"/>
+      <c r="J21" s="139"/>
+      <c r="K21" s="140"/>
+      <c r="L21" s="140"/>
+      <c r="M21" s="141"/>
+      <c r="N21" s="139"/>
+      <c r="O21" s="140"/>
+      <c r="P21" s="140"/>
+      <c r="Q21" s="141"/>
+      <c r="R21" s="139"/>
+      <c r="S21" s="140"/>
+      <c r="T21" s="140"/>
+      <c r="U21" s="141"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/notes/WellThoughts.xlsx
+++ b/notes/WellThoughts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="48" windowWidth="16260" windowHeight="9000" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="108" windowWidth="16260" windowHeight="8940" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Oddz" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,19 @@
     <sheet name="VolcanoShape" sheetId="10" r:id="rId10"/>
     <sheet name="HexCalc2" sheetId="11" r:id="rId11"/>
     <sheet name="Sheet2" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="HalfPi">VolcanoShape!$F$2</definedName>
+    <definedName name="incer">Sheet1!$A$3</definedName>
+    <definedName name="range">Sheet1!$A$2</definedName>
     <definedName name="Steps">VolcanoShape!$G$1</definedName>
     <definedName name="TwoPi">VolcanoShape!$F$1</definedName>
     <definedName name="WellWidth">'Hex step'!$A$1</definedName>
     <definedName name="WellWidth2">HexCalc2!$B$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -893,12 +897,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" textRotation="180" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -932,6 +930,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" textRotation="180" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1378,11 +1382,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="266967296"/>
-        <c:axId val="266969088"/>
+        <c:axId val="222466048"/>
+        <c:axId val="222467584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="266967296"/>
+        <c:axId val="222466048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1391,7 +1395,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="266969088"/>
+        <c:crossAx val="222467584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1399,7 +1403,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="266969088"/>
+        <c:axId val="222467584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1410,14 +1414,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="266967296"/>
+        <c:crossAx val="222466048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1772,10 +1775,10 @@
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="129" t="s">
+      <c r="P1" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="129"/>
+      <c r="Q1" s="141"/>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -1855,7 +1858,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="10"/>
-      <c r="L5" s="130" t="s">
+      <c r="L5" s="142" t="s">
         <v>16</v>
       </c>
       <c r="M5" s="1">
@@ -1904,7 +1907,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
-      <c r="L6" s="130"/>
+      <c r="L6" s="142"/>
       <c r="O6" s="6"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="9"/>
@@ -4947,7 +4950,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E21" s="131" t="s">
+      <c r="E21" s="129" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4956,7 +4959,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E22" s="131" t="s">
+      <c r="E22" s="129" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4965,7 +4968,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E23" s="131" t="s">
+      <c r="E23" s="129" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4974,67 +4977,67 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E24" s="131" t="s">
+      <c r="E24" s="129" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E25" s="131" t="s">
+      <c r="E25" s="129" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E26" s="131" t="s">
+      <c r="E26" s="129" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E27" s="131" t="s">
+      <c r="E27" s="129" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E28" s="131" t="s">
+      <c r="E28" s="129" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E29" s="131" t="s">
+      <c r="E29" s="129" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E30" s="131" t="s">
+      <c r="E30" s="129" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E31" s="131" t="s">
+      <c r="E31" s="129" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E32" s="131" t="s">
+      <c r="E32" s="129" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E33" s="131" t="s">
+      <c r="E33" s="129" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E34" s="131" t="s">
+      <c r="E34" s="129" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="35" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E35" s="131" t="s">
+      <c r="E35" s="129" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E36" s="131" t="s">
+      <c r="E36" s="129" t="s">
         <v>65</v>
       </c>
     </row>
@@ -5048,833 +5051,2059 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AH19" sqref="AH19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="19" width="2.77734375" style="135"/>
-    <col min="20" max="21" width="2.77734375" style="135" customWidth="1"/>
-    <col min="22" max="16384" width="2.77734375" style="135"/>
+    <col min="1" max="19" width="2.77734375" style="133"/>
+    <col min="20" max="21" width="2.77734375" style="133" customWidth="1"/>
+    <col min="22" max="16384" width="2.77734375" style="133"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="132"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="134"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="132"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="136"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="138"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="137"/>
-      <c r="P3" s="137"/>
-      <c r="Q3" s="138"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="137"/>
-      <c r="T3" s="137"/>
-      <c r="U3" s="138"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="135"/>
+      <c r="P3" s="135"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="135"/>
+      <c r="T3" s="135"/>
+      <c r="U3" s="136"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B4" s="136"/>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="138"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="137"/>
-      <c r="L4" s="137"/>
-      <c r="M4" s="138"/>
-      <c r="N4" s="136"/>
-      <c r="O4" s="137"/>
-      <c r="P4" s="137"/>
-      <c r="Q4" s="138"/>
-      <c r="R4" s="136"/>
-      <c r="S4" s="137"/>
-      <c r="T4" s="137"/>
-      <c r="U4" s="138"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="135"/>
+      <c r="M4" s="136"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="135"/>
+      <c r="P4" s="135"/>
+      <c r="Q4" s="136"/>
+      <c r="R4" s="134"/>
+      <c r="S4" s="135"/>
+      <c r="T4" s="135"/>
+      <c r="U4" s="136"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="139"/>
-      <c r="C5" s="140"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="141"/>
-      <c r="J5" s="139"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="141"/>
-      <c r="N5" s="139"/>
-      <c r="O5" s="140"/>
-      <c r="P5" s="140"/>
-      <c r="Q5" s="141"/>
-      <c r="R5" s="139"/>
-      <c r="S5" s="140"/>
-      <c r="T5" s="140"/>
-      <c r="U5" s="141"/>
+      <c r="B5" s="137"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="138"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="138"/>
+      <c r="P5" s="138"/>
+      <c r="Q5" s="139"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="138"/>
+      <c r="T5" s="138"/>
+      <c r="U5" s="139"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="D6" s="132"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="132"/>
-      <c r="M6" s="133"/>
-      <c r="N6" s="133"/>
-      <c r="O6" s="134"/>
-      <c r="P6" s="132"/>
-      <c r="Q6" s="133"/>
-      <c r="R6" s="133"/>
-      <c r="S6" s="134"/>
-      <c r="T6" s="132"/>
-      <c r="U6" s="133"/>
-      <c r="V6" s="133"/>
-      <c r="W6" s="134"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="132"/>
+      <c r="L6" s="130"/>
+      <c r="M6" s="131"/>
+      <c r="N6" s="131"/>
+      <c r="O6" s="132"/>
+      <c r="P6" s="130"/>
+      <c r="Q6" s="131"/>
+      <c r="R6" s="131"/>
+      <c r="S6" s="132"/>
+      <c r="T6" s="130"/>
+      <c r="U6" s="131"/>
+      <c r="V6" s="131"/>
+      <c r="W6" s="132"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="D7" s="136">
-        <f t="shared" ref="D7" si="0">D9-D8</f>
+      <c r="D7" s="134">
+        <f t="shared" ref="D7:W7" si="0">D9-D8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="137">
-        <f t="shared" ref="E7" si="1">E9-E8</f>
+      <c r="E7" s="135">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F7" s="137">
-        <f t="shared" ref="F7" si="2">F9-F8</f>
+      <c r="F7" s="135">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G7" s="138">
-        <f t="shared" ref="G7" si="3">G9-G8</f>
+      <c r="G7" s="136">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H7" s="136">
-        <f t="shared" ref="H7" si="4">H9-H8</f>
+      <c r="H7" s="134">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="137">
-        <f t="shared" ref="I7" si="5">I9-I8</f>
+      <c r="I7" s="135">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J7" s="137">
-        <f t="shared" ref="J7" si="6">J9-J8</f>
+      <c r="J7" s="135">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K7" s="138">
-        <f t="shared" ref="K7" si="7">K9-K8</f>
+      <c r="K7" s="136">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L7" s="136">
-        <f t="shared" ref="L7" si="8">L9-L8</f>
+      <c r="L7" s="134">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M7" s="137">
-        <f t="shared" ref="M7" si="9">M9-M8</f>
+      <c r="M7" s="135">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N7" s="137">
-        <f t="shared" ref="N7" si="10">N9-N8</f>
+      <c r="N7" s="135">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="O7" s="138">
-        <f t="shared" ref="O7" si="11">O9-O8</f>
+      <c r="O7" s="136">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="P7" s="136">
-        <f t="shared" ref="P7" si="12">P9-P8</f>
+      <c r="P7" s="134">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="137">
-        <f t="shared" ref="Q7" si="13">Q9-Q8</f>
+      <c r="Q7" s="135">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R7" s="137">
-        <f t="shared" ref="R7" si="14">R9-R8</f>
+      <c r="R7" s="135">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="S7" s="138">
-        <f t="shared" ref="S7" si="15">S9-S8</f>
+      <c r="S7" s="136">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="T7" s="136">
-        <f t="shared" ref="T7" si="16">T9-T8</f>
+      <c r="T7" s="134">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U7" s="137">
-        <f t="shared" ref="U7" si="17">U9-U8</f>
+      <c r="U7" s="135">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V7" s="137">
-        <f t="shared" ref="V7" si="18">V9-V8</f>
+      <c r="V7" s="135">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W7" s="138">
-        <f t="shared" ref="W7" si="19">W9-W8</f>
+      <c r="W7" s="136">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="D8" s="136">
+      <c r="D8" s="134">
         <v>-6</v>
       </c>
-      <c r="E8" s="137">
+      <c r="E8" s="135">
         <v>-6</v>
       </c>
-      <c r="F8" s="137">
+      <c r="F8" s="135">
         <v>-6</v>
       </c>
-      <c r="G8" s="138">
+      <c r="G8" s="136">
         <v>-6</v>
       </c>
-      <c r="H8" s="136">
+      <c r="H8" s="134">
         <v>-2</v>
       </c>
-      <c r="I8" s="137">
+      <c r="I8" s="135">
         <v>-2</v>
       </c>
-      <c r="J8" s="137">
+      <c r="J8" s="135">
         <v>-2</v>
       </c>
-      <c r="K8" s="138">
+      <c r="K8" s="136">
         <v>-2</v>
       </c>
-      <c r="L8" s="136">
+      <c r="L8" s="134">
         <v>2</v>
       </c>
-      <c r="M8" s="142">
+      <c r="M8" s="140">
         <v>2</v>
       </c>
-      <c r="N8" s="142">
+      <c r="N8" s="140">
         <v>2</v>
       </c>
-      <c r="O8" s="138">
+      <c r="O8" s="136">
         <v>2</v>
       </c>
-      <c r="P8" s="136">
+      <c r="P8" s="134">
         <v>6</v>
       </c>
-      <c r="Q8" s="142">
+      <c r="Q8" s="140">
         <v>6</v>
       </c>
-      <c r="R8" s="142">
+      <c r="R8" s="140">
         <v>6</v>
       </c>
-      <c r="S8" s="138">
+      <c r="S8" s="136">
         <v>6</v>
       </c>
-      <c r="T8" s="136">
+      <c r="T8" s="134">
         <v>10</v>
       </c>
-      <c r="U8" s="142">
+      <c r="U8" s="140">
         <v>10</v>
       </c>
-      <c r="V8" s="137"/>
-      <c r="W8" s="138"/>
+      <c r="V8" s="135"/>
+      <c r="W8" s="136"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B9" s="135">
-        <f t="shared" ref="B9:H9" si="20">C9-1</f>
+      <c r="B9" s="133">
+        <f t="shared" ref="B9:H9" si="1">C9-1</f>
         <v>-8</v>
       </c>
-      <c r="C9" s="135">
-        <f t="shared" si="20"/>
+      <c r="C9" s="133">
+        <f t="shared" si="1"/>
         <v>-7</v>
       </c>
-      <c r="D9" s="139">
-        <f t="shared" si="20"/>
+      <c r="D9" s="137">
+        <f t="shared" si="1"/>
         <v>-6</v>
       </c>
-      <c r="E9" s="140">
-        <f t="shared" si="20"/>
+      <c r="E9" s="138">
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
-      <c r="F9" s="140">
-        <f t="shared" si="20"/>
+      <c r="F9" s="138">
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
-      <c r="G9" s="141">
-        <f t="shared" si="20"/>
+      <c r="G9" s="139">
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
-      <c r="H9" s="139">
-        <f t="shared" si="20"/>
+      <c r="H9" s="137">
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-      <c r="I9" s="140">
+      <c r="I9" s="138">
         <f>J9-1</f>
         <v>-1</v>
       </c>
-      <c r="J9" s="140">
+      <c r="J9" s="138">
         <v>0</v>
       </c>
-      <c r="K9" s="141">
+      <c r="K9" s="139">
         <f>J9+1</f>
         <v>1</v>
       </c>
-      <c r="L9" s="139">
-        <f t="shared" ref="L9:U9" si="21">K9+1</f>
+      <c r="L9" s="137">
+        <f t="shared" ref="L9:U9" si="2">K9+1</f>
         <v>2</v>
       </c>
-      <c r="M9" s="140">
-        <f t="shared" si="21"/>
+      <c r="M9" s="138">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="N9" s="140">
-        <f t="shared" si="21"/>
+      <c r="N9" s="138">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="O9" s="141">
-        <f t="shared" si="21"/>
+      <c r="O9" s="139">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="P9" s="139">
-        <f t="shared" si="21"/>
+      <c r="P9" s="137">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="Q9" s="140">
-        <f t="shared" si="21"/>
+      <c r="Q9" s="138">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="R9" s="140">
-        <f t="shared" si="21"/>
+      <c r="R9" s="138">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="S9" s="141">
-        <f t="shared" si="21"/>
+      <c r="S9" s="139">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="T9" s="139">
-        <f t="shared" si="21"/>
+      <c r="T9" s="137">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="U9" s="140">
-        <f t="shared" si="21"/>
+      <c r="U9" s="138">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="V9" s="140"/>
-      <c r="W9" s="141"/>
+      <c r="V9" s="138"/>
+      <c r="W9" s="139"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B10" s="132"/>
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="132"/>
-      <c r="K10" s="133"/>
-      <c r="L10" s="133"/>
-      <c r="M10" s="134"/>
-      <c r="N10" s="132"/>
-      <c r="O10" s="133"/>
-      <c r="P10" s="133"/>
-      <c r="Q10" s="134"/>
-      <c r="R10" s="132"/>
-      <c r="S10" s="133"/>
-      <c r="T10" s="133"/>
-      <c r="U10" s="134"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="131"/>
+      <c r="M10" s="132"/>
+      <c r="N10" s="130"/>
+      <c r="O10" s="131"/>
+      <c r="P10" s="131"/>
+      <c r="Q10" s="132"/>
+      <c r="R10" s="130"/>
+      <c r="S10" s="131"/>
+      <c r="T10" s="131"/>
+      <c r="U10" s="132"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B11" s="136">
-        <f t="shared" ref="B11" si="22">B13-B12</f>
+      <c r="B11" s="134">
+        <f t="shared" ref="B11:U11" si="3">B13-B12</f>
         <v>0</v>
       </c>
-      <c r="C11" s="137">
-        <f t="shared" ref="C11" si="23">C13-C12</f>
+      <c r="C11" s="135">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D11" s="137">
-        <f t="shared" ref="D11" si="24">D13-D12</f>
+      <c r="D11" s="135">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E11" s="138">
-        <f t="shared" ref="E11:F11" si="25">E13-E12</f>
+      <c r="E11" s="136">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="F11" s="136">
-        <f t="shared" si="25"/>
+      <c r="F11" s="134">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G11" s="137">
-        <f t="shared" ref="G11" si="26">G13-G12</f>
+      <c r="G11" s="135">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H11" s="137">
-        <f t="shared" ref="H11" si="27">H13-H12</f>
+      <c r="H11" s="135">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="I11" s="138">
-        <f t="shared" ref="I11" si="28">I13-I12</f>
+      <c r="I11" s="136">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="J11" s="136">
-        <f>J13-J12</f>
+      <c r="J11" s="134">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11" s="137">
-        <f t="shared" ref="K11:N11" si="29">K13-K12</f>
+      <c r="K11" s="135">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L11" s="137">
-        <f t="shared" si="29"/>
+      <c r="L11" s="135">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M11" s="138">
-        <f t="shared" si="29"/>
+      <c r="M11" s="136">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="N11" s="136">
-        <f t="shared" si="29"/>
+      <c r="N11" s="134">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O11" s="137">
-        <f t="shared" ref="O11" si="30">O13-O12</f>
+      <c r="O11" s="135">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P11" s="137">
-        <f t="shared" ref="P11" si="31">P13-P12</f>
+      <c r="P11" s="135">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="Q11" s="138">
-        <f t="shared" ref="Q11:R11" si="32">Q13-Q12</f>
+      <c r="Q11" s="136">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R11" s="136">
-        <f t="shared" si="32"/>
+      <c r="R11" s="134">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S11" s="137">
-        <f t="shared" ref="S11" si="33">S13-S12</f>
+      <c r="S11" s="135">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T11" s="137">
-        <f t="shared" ref="T11" si="34">T13-T12</f>
+      <c r="T11" s="135">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U11" s="138">
-        <f t="shared" ref="U11" si="35">U13-U12</f>
+      <c r="U11" s="136">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B12" s="136">
+      <c r="B12" s="134">
         <v>-8</v>
       </c>
-      <c r="C12" s="137">
+      <c r="C12" s="135">
         <v>-8</v>
       </c>
-      <c r="D12" s="137">
+      <c r="D12" s="135">
         <v>-8</v>
       </c>
-      <c r="E12" s="138">
+      <c r="E12" s="136">
         <v>-8</v>
       </c>
-      <c r="F12" s="136">
+      <c r="F12" s="134">
         <v>-4</v>
       </c>
-      <c r="G12" s="137">
+      <c r="G12" s="135">
         <v>-4</v>
       </c>
-      <c r="H12" s="137">
+      <c r="H12" s="135">
         <v>-4</v>
       </c>
-      <c r="I12" s="138">
+      <c r="I12" s="136">
         <v>-4</v>
       </c>
-      <c r="J12" s="136">
+      <c r="J12" s="134">
         <v>0</v>
       </c>
-      <c r="K12" s="137">
+      <c r="K12" s="135">
         <v>0</v>
       </c>
-      <c r="L12" s="137">
+      <c r="L12" s="135">
         <v>0</v>
       </c>
-      <c r="M12" s="138">
+      <c r="M12" s="136">
         <v>0</v>
       </c>
-      <c r="N12" s="136">
+      <c r="N12" s="134">
         <v>4</v>
       </c>
-      <c r="O12" s="142">
+      <c r="O12" s="140">
         <v>4</v>
       </c>
-      <c r="P12" s="142">
+      <c r="P12" s="140">
         <v>4</v>
       </c>
-      <c r="Q12" s="138">
+      <c r="Q12" s="136">
         <v>4</v>
       </c>
-      <c r="R12" s="136">
+      <c r="R12" s="134">
         <v>8</v>
       </c>
-      <c r="S12" s="142">
+      <c r="S12" s="140">
         <v>8</v>
       </c>
-      <c r="T12" s="142">
+      <c r="T12" s="140">
         <v>8</v>
       </c>
-      <c r="U12" s="138">
+      <c r="U12" s="136">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B13" s="139">
-        <f t="shared" ref="B13:H13" si="36">C13-1</f>
+      <c r="B13" s="137">
+        <f t="shared" ref="B13:H13" si="4">C13-1</f>
         <v>-8</v>
       </c>
-      <c r="C13" s="140">
-        <f t="shared" si="36"/>
+      <c r="C13" s="138">
+        <f t="shared" si="4"/>
         <v>-7</v>
       </c>
-      <c r="D13" s="140">
-        <f t="shared" si="36"/>
+      <c r="D13" s="138">
+        <f t="shared" si="4"/>
         <v>-6</v>
       </c>
-      <c r="E13" s="141">
-        <f t="shared" si="36"/>
+      <c r="E13" s="139">
+        <f t="shared" si="4"/>
         <v>-5</v>
       </c>
-      <c r="F13" s="139">
-        <f t="shared" si="36"/>
+      <c r="F13" s="137">
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
-      <c r="G13" s="140">
-        <f t="shared" si="36"/>
+      <c r="G13" s="138">
+        <f t="shared" si="4"/>
         <v>-3</v>
       </c>
-      <c r="H13" s="140">
-        <f t="shared" si="36"/>
+      <c r="H13" s="138">
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
-      <c r="I13" s="141">
+      <c r="I13" s="139">
         <f>J13-1</f>
         <v>-1</v>
       </c>
-      <c r="J13" s="139">
+      <c r="J13" s="137">
         <v>0</v>
       </c>
-      <c r="K13" s="140">
+      <c r="K13" s="138">
         <f>J13+1</f>
         <v>1</v>
       </c>
-      <c r="L13" s="140">
-        <f t="shared" ref="L13:U13" si="37">K13+1</f>
+      <c r="L13" s="138">
+        <f t="shared" ref="L13:U13" si="5">K13+1</f>
         <v>2</v>
       </c>
-      <c r="M13" s="141">
-        <f t="shared" si="37"/>
+      <c r="M13" s="139">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="N13" s="139">
-        <f t="shared" si="37"/>
+      <c r="N13" s="137">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="O13" s="140">
-        <f t="shared" si="37"/>
+      <c r="O13" s="138">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="P13" s="140">
-        <f t="shared" si="37"/>
+      <c r="P13" s="138">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="Q13" s="141">
-        <f t="shared" si="37"/>
+      <c r="Q13" s="139">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="R13" s="139">
-        <f t="shared" si="37"/>
+      <c r="R13" s="137">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="S13" s="140">
-        <f t="shared" si="37"/>
+      <c r="S13" s="138">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="T13" s="140">
-        <f t="shared" si="37"/>
+      <c r="T13" s="138">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="U13" s="141">
-        <f t="shared" si="37"/>
+      <c r="U13" s="139">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="D14" s="132"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="134"/>
-      <c r="L14" s="132"/>
-      <c r="M14" s="133"/>
-      <c r="N14" s="133"/>
-      <c r="O14" s="134"/>
-      <c r="P14" s="132"/>
-      <c r="Q14" s="133"/>
-      <c r="R14" s="133"/>
-      <c r="S14" s="134"/>
-      <c r="T14" s="132"/>
-      <c r="U14" s="133"/>
-      <c r="V14" s="133"/>
-      <c r="W14" s="134"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
+      <c r="J14" s="131"/>
+      <c r="K14" s="132"/>
+      <c r="L14" s="130"/>
+      <c r="M14" s="131"/>
+      <c r="N14" s="131"/>
+      <c r="O14" s="132"/>
+      <c r="P14" s="130"/>
+      <c r="Q14" s="131"/>
+      <c r="R14" s="131"/>
+      <c r="S14" s="132"/>
+      <c r="T14" s="130"/>
+      <c r="U14" s="131"/>
+      <c r="V14" s="131"/>
+      <c r="W14" s="132"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="D15" s="136"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="137"/>
-      <c r="K15" s="138"/>
-      <c r="L15" s="136"/>
-      <c r="M15" s="137"/>
-      <c r="N15" s="137"/>
-      <c r="O15" s="138"/>
-      <c r="P15" s="136"/>
-      <c r="Q15" s="137"/>
-      <c r="R15" s="137"/>
-      <c r="S15" s="138"/>
-      <c r="T15" s="136"/>
-      <c r="U15" s="137"/>
-      <c r="V15" s="137"/>
-      <c r="W15" s="138"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="135"/>
+      <c r="J15" s="135"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="135"/>
+      <c r="N15" s="135"/>
+      <c r="O15" s="136"/>
+      <c r="P15" s="134"/>
+      <c r="Q15" s="135"/>
+      <c r="R15" s="135"/>
+      <c r="S15" s="136"/>
+      <c r="T15" s="134"/>
+      <c r="U15" s="135"/>
+      <c r="V15" s="135"/>
+      <c r="W15" s="136"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="D16" s="136"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="138"/>
-      <c r="L16" s="136"/>
-      <c r="M16" s="137"/>
-      <c r="N16" s="137"/>
-      <c r="O16" s="138"/>
-      <c r="P16" s="136"/>
-      <c r="Q16" s="137"/>
-      <c r="R16" s="137"/>
-      <c r="S16" s="138"/>
-      <c r="T16" s="136"/>
-      <c r="U16" s="137"/>
-      <c r="V16" s="137"/>
-      <c r="W16" s="138"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="136"/>
+      <c r="P16" s="134"/>
+      <c r="Q16" s="135"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="136"/>
+      <c r="T16" s="134"/>
+      <c r="U16" s="135"/>
+      <c r="V16" s="135"/>
+      <c r="W16" s="136"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B17" s="135">
-        <f t="shared" ref="B17:H17" si="38">C17-1</f>
+      <c r="B17" s="133">
+        <f t="shared" ref="B17:H17" si="6">C17-1</f>
         <v>-8</v>
       </c>
-      <c r="C17" s="135">
-        <f t="shared" si="38"/>
+      <c r="C17" s="133">
+        <f t="shared" si="6"/>
         <v>-7</v>
       </c>
-      <c r="D17" s="139">
-        <f t="shared" si="38"/>
+      <c r="D17" s="137">
+        <f t="shared" si="6"/>
         <v>-6</v>
       </c>
-      <c r="E17" s="140">
-        <f t="shared" si="38"/>
+      <c r="E17" s="138">
+        <f t="shared" si="6"/>
         <v>-5</v>
       </c>
-      <c r="F17" s="140">
-        <f t="shared" si="38"/>
+      <c r="F17" s="138">
+        <f t="shared" si="6"/>
         <v>-4</v>
       </c>
-      <c r="G17" s="141">
-        <f t="shared" si="38"/>
+      <c r="G17" s="139">
+        <f t="shared" si="6"/>
         <v>-3</v>
       </c>
-      <c r="H17" s="139">
-        <f t="shared" si="38"/>
+      <c r="H17" s="137">
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
-      <c r="I17" s="140">
+      <c r="I17" s="138">
         <f>J17-1</f>
         <v>-1</v>
       </c>
-      <c r="J17" s="140">
+      <c r="J17" s="138">
         <v>0</v>
       </c>
-      <c r="K17" s="141">
+      <c r="K17" s="139">
         <f>J17+1</f>
         <v>1</v>
       </c>
-      <c r="L17" s="139">
-        <f t="shared" ref="L17:U17" si="39">K17+1</f>
+      <c r="L17" s="137">
+        <f t="shared" ref="L17:U17" si="7">K17+1</f>
         <v>2</v>
       </c>
-      <c r="M17" s="140">
-        <f t="shared" si="39"/>
+      <c r="M17" s="138">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="N17" s="140">
-        <f t="shared" si="39"/>
+      <c r="N17" s="138">
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="O17" s="141">
-        <f t="shared" si="39"/>
+      <c r="O17" s="139">
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="P17" s="139">
-        <f t="shared" si="39"/>
+      <c r="P17" s="137">
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="Q17" s="140">
-        <f t="shared" si="39"/>
+      <c r="Q17" s="138">
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="R17" s="140">
-        <f t="shared" si="39"/>
+      <c r="R17" s="138">
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="S17" s="141">
-        <f t="shared" si="39"/>
+      <c r="S17" s="139">
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="T17" s="139">
-        <f t="shared" si="39"/>
+      <c r="T17" s="137">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="U17" s="140">
-        <f t="shared" si="39"/>
+      <c r="U17" s="138">
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="V17" s="140"/>
-      <c r="W17" s="141"/>
+      <c r="V17" s="138"/>
+      <c r="W17" s="139"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B18" s="132"/>
-      <c r="C18" s="133"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="134"/>
-      <c r="J18" s="132"/>
-      <c r="K18" s="133"/>
-      <c r="L18" s="133"/>
-      <c r="M18" s="134"/>
-      <c r="N18" s="132"/>
-      <c r="O18" s="133"/>
-      <c r="P18" s="133"/>
-      <c r="Q18" s="134"/>
-      <c r="R18" s="132"/>
-      <c r="S18" s="133"/>
-      <c r="T18" s="133"/>
-      <c r="U18" s="134"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="131"/>
+      <c r="L18" s="131"/>
+      <c r="M18" s="132"/>
+      <c r="N18" s="130"/>
+      <c r="O18" s="131"/>
+      <c r="P18" s="131"/>
+      <c r="Q18" s="132"/>
+      <c r="R18" s="130"/>
+      <c r="S18" s="131"/>
+      <c r="T18" s="131"/>
+      <c r="U18" s="132"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B19" s="136"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="138"/>
-      <c r="F19" s="136"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="138"/>
-      <c r="J19" s="136"/>
-      <c r="K19" s="137"/>
-      <c r="L19" s="137"/>
-      <c r="M19" s="138"/>
-      <c r="N19" s="136"/>
-      <c r="O19" s="137"/>
-      <c r="P19" s="137"/>
-      <c r="Q19" s="138"/>
-      <c r="R19" s="136"/>
-      <c r="S19" s="137"/>
-      <c r="T19" s="137"/>
-      <c r="U19" s="138"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="134"/>
+      <c r="K19" s="135"/>
+      <c r="L19" s="135"/>
+      <c r="M19" s="136"/>
+      <c r="N19" s="134"/>
+      <c r="O19" s="135"/>
+      <c r="P19" s="135"/>
+      <c r="Q19" s="136"/>
+      <c r="R19" s="134"/>
+      <c r="S19" s="135"/>
+      <c r="T19" s="135"/>
+      <c r="U19" s="136"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B20" s="136"/>
-      <c r="C20" s="137"/>
-      <c r="D20" s="137"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="137"/>
-      <c r="H20" s="137"/>
-      <c r="I20" s="138"/>
-      <c r="J20" s="136"/>
-      <c r="K20" s="137"/>
-      <c r="L20" s="137"/>
-      <c r="M20" s="138"/>
-      <c r="N20" s="136"/>
-      <c r="O20" s="137"/>
-      <c r="P20" s="137"/>
-      <c r="Q20" s="138"/>
-      <c r="R20" s="136"/>
-      <c r="S20" s="137"/>
-      <c r="T20" s="137"/>
-      <c r="U20" s="138"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="135"/>
+      <c r="H20" s="135"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="134"/>
+      <c r="K20" s="135"/>
+      <c r="L20" s="135"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="134"/>
+      <c r="O20" s="135"/>
+      <c r="P20" s="135"/>
+      <c r="Q20" s="136"/>
+      <c r="R20" s="134"/>
+      <c r="S20" s="135"/>
+      <c r="T20" s="135"/>
+      <c r="U20" s="136"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B21" s="139"/>
-      <c r="C21" s="140"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="141"/>
-      <c r="J21" s="139"/>
-      <c r="K21" s="140"/>
-      <c r="L21" s="140"/>
-      <c r="M21" s="141"/>
-      <c r="N21" s="139"/>
-      <c r="O21" s="140"/>
-      <c r="P21" s="140"/>
-      <c r="Q21" s="141"/>
-      <c r="R21" s="139"/>
-      <c r="S21" s="140"/>
-      <c r="T21" s="140"/>
-      <c r="U21" s="141"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="138"/>
+      <c r="L21" s="138"/>
+      <c r="M21" s="139"/>
+      <c r="N21" s="137"/>
+      <c r="O21" s="138"/>
+      <c r="P21" s="138"/>
+      <c r="Q21" s="139"/>
+      <c r="R21" s="137"/>
+      <c r="S21" s="138"/>
+      <c r="T21" s="138"/>
+      <c r="U21" s="139"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C65" si="0">B2*range</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>TRUNC(C2)</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>TRUNC(C2+0.5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B19" si="1">B2+incer</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="2">TRUNC(C3)</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E22" si="3">TRUNC(C3+0.5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>7.5000000000000011E-2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1.2750000000000001</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>2.125</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>2.9749999999999996</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>3.4</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>3.8249999999999997</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>0.24999999999999997</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>4.2499999999999991</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>0.27499999999999997</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>4.6749999999999998</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>5.5250000000000004</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>5.95</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>0.37500000000000006</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>6.3750000000000009</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>0.40000000000000008</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>6.8000000000000016</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>0.4250000000000001</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>7.2250000000000014</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <f t="shared" ref="B20:B24" si="4">B19+incer</f>
+        <v>0.45000000000000012</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>7.6500000000000021</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <f t="shared" si="4"/>
+        <v>0.47500000000000014</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>8.0750000000000028</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <f t="shared" si="4"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>8.5000000000000018</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <f t="shared" ref="B23:B68" si="5">B22+incer</f>
+        <v>0.52500000000000013</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>8.9250000000000025</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ref="E23:E68" si="6">TRUNC(C23+0.5)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <f t="shared" si="5"/>
+        <v>0.55000000000000016</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>9.3500000000000032</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <f t="shared" si="5"/>
+        <v>0.57500000000000018</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>9.7750000000000021</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <f t="shared" si="5"/>
+        <v>0.6000000000000002</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>10.200000000000003</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <f t="shared" si="5"/>
+        <v>0.62500000000000022</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>10.625000000000004</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <f t="shared" si="5"/>
+        <v>0.65000000000000024</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>11.050000000000004</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <f t="shared" si="5"/>
+        <v>0.67500000000000027</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>11.475000000000005</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <f t="shared" si="5"/>
+        <v>0.70000000000000029</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>11.900000000000006</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <f t="shared" si="5"/>
+        <v>0.72500000000000031</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>12.325000000000005</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <f t="shared" si="5"/>
+        <v>0.75000000000000033</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>12.750000000000005</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <f t="shared" si="5"/>
+        <v>0.77500000000000036</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>13.175000000000006</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <f t="shared" si="5"/>
+        <v>0.80000000000000038</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>13.600000000000007</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <f t="shared" si="5"/>
+        <v>0.8250000000000004</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>14.025000000000007</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <f t="shared" si="5"/>
+        <v>0.85000000000000042</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>14.450000000000006</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <f t="shared" si="5"/>
+        <v>0.87500000000000044</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>14.875000000000007</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <f t="shared" si="5"/>
+        <v>0.90000000000000047</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>15.300000000000008</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <f t="shared" si="5"/>
+        <v>0.92500000000000049</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>15.725000000000009</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <f t="shared" si="5"/>
+        <v>0.95000000000000051</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>16.150000000000009</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <f t="shared" si="5"/>
+        <v>0.97500000000000053</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>16.57500000000001</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>17.000000000000007</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <f t="shared" si="5"/>
+        <v>1.0250000000000004</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>17.425000000000004</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <f t="shared" si="5"/>
+        <v>1.0500000000000003</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>17.850000000000005</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <f t="shared" si="5"/>
+        <v>1.0750000000000002</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>18.275000000000002</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>18.700000000000003</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <f t="shared" si="5"/>
+        <v>1.125</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>19.125</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <f t="shared" si="5"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>19.549999999999997</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <f t="shared" si="5"/>
+        <v>1.1749999999999998</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>19.974999999999998</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <f t="shared" si="5"/>
+        <v>1.1999999999999997</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>20.399999999999995</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <f t="shared" si="5"/>
+        <v>1.2249999999999996</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>20.824999999999996</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <f t="shared" si="5"/>
+        <v>1.2499999999999996</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>21.249999999999993</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <f t="shared" si="5"/>
+        <v>1.2749999999999995</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>21.67499999999999</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <f t="shared" si="5"/>
+        <v>1.2999999999999994</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>22.099999999999991</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <f t="shared" si="5"/>
+        <v>1.3249999999999993</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>22.524999999999988</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <f t="shared" si="5"/>
+        <v>1.3499999999999992</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>22.949999999999985</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <f t="shared" si="5"/>
+        <v>1.3749999999999991</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>23.374999999999986</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <f t="shared" si="5"/>
+        <v>1.399999999999999</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>23.799999999999983</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <f t="shared" si="5"/>
+        <v>1.4249999999999989</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>24.22499999999998</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <f t="shared" si="5"/>
+        <v>1.4499999999999988</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>24.649999999999981</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <f t="shared" si="5"/>
+        <v>1.4749999999999988</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>25.074999999999978</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <f t="shared" si="5"/>
+        <v>1.4999999999999987</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>25.499999999999979</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <f t="shared" si="5"/>
+        <v>1.5249999999999986</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>25.924999999999976</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <f t="shared" si="5"/>
+        <v>1.5499999999999985</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>26.349999999999973</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <f t="shared" si="5"/>
+        <v>1.5749999999999984</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>26.774999999999974</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <f t="shared" si="5"/>
+        <v>1.5999999999999983</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ref="C66:C68" si="7">B66*range</f>
+        <v>27.199999999999971</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <f t="shared" si="5"/>
+        <v>1.6249999999999982</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="7"/>
+        <v>27.624999999999972</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D68" si="8">TRUNC(C67)</f>
+        <v>27</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <f t="shared" si="5"/>
+        <v>1.6499999999999981</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="7"/>
+        <v>28.049999999999969</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -55433,7 +56662,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19:Q35" si="6">IF(ISODD($C19),D$2,D$2+$B$1)</f>
+        <f t="shared" ref="D19:D35" si="6">IF(ISODD($C19),D$2,D$2+$B$1)</f>
         <v>0</v>
       </c>
       <c r="E19">
@@ -56331,7 +57560,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32">
-        <f t="shared" ref="A32:A35" si="8">+A31+1</f>
+        <f>+A31+1</f>
         <v>13</v>
       </c>
       <c r="B32">
@@ -56401,7 +57630,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33">
-        <f t="shared" si="8"/>
+        <f>+A32+1</f>
         <v>14</v>
       </c>
       <c r="B33">
@@ -56471,7 +57700,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34">
-        <f t="shared" si="8"/>
+        <f>+A33+1</f>
         <v>15</v>
       </c>
       <c r="B34">
@@ -56541,7 +57770,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35">
-        <f t="shared" si="8"/>
+        <f>+A34+1</f>
         <v>16</v>
       </c>
       <c r="B35">
@@ -56557,55 +57786,55 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="E35:Q35" si="8">IF(ISODD($C35),E$2,E$2+$B$1)</f>
         <v>-6</v>
       </c>
       <c r="F35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-2</v>
       </c>
       <c r="G35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-2</v>
       </c>
       <c r="H35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-2</v>
       </c>
       <c r="I35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-2</v>
       </c>
       <c r="J35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="K35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="L35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="M35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="N35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="O35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="P35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
